--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="44910" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -922,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,74 +950,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1064,112 +1067,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1492,7 +1390,8 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,24 +1400,24 @@
     <col min="2" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="5"/>
       <c r="I1" s="8"/>
       <c r="J1" s="5"/>
@@ -1527,13 +1426,13 @@
       <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1556,14 +1455,14 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1596,821 +1495,933 @@
       <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="e">
-        <f t="shared" ref="A4:M4" si="0">AVERAGE(A6:A129)</f>
+        <f t="shared" ref="A4" si="0">AVERAGE(A6:A129)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <f>AVERAGE(B6:B19,B21:B34)</f>
         <v>3976.1171428571438</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:M4" si="1">AVERAGE(C6:C19,C21:C34)</f>
         <v>4003.2375000000006</v>
       </c>
-      <c r="D4" s="19" t="e">
+      <c r="D4" s="17">
+        <f t="shared" si="1"/>
+        <v>3975.2678571428573</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>4002.2767857142858</v>
+      </c>
+      <c r="F4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="19" t="e">
+      <c r="G4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="19" t="e">
+      <c r="H4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="19" t="e">
+      <c r="I4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="19" t="e">
+      <c r="J4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="19" t="e">
+      <c r="K4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="19" t="e">
+      <c r="L4" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="M4" s="19">
         <f t="shared" si="1"/>
         <v>3947.2042857142851</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="e">
+      <c r="A5" s="16" t="e">
         <f>AVERAGE(A6:A19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <f>AVERAGE(B6:B19)</f>
         <v>3907.0535714285716</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <f t="shared" ref="C5:M5" si="2">AVERAGE(C6:C19)</f>
         <v>3945.8035714285716</v>
       </c>
-      <c r="D5" s="18" t="e">
+      <c r="D5" s="16">
+        <f t="shared" si="2"/>
+        <v>3917.7678571428573</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="2"/>
+        <v>3940.1785714285716</v>
+      </c>
+      <c r="F5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="18" t="e">
+      <c r="G5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="18" t="e">
+      <c r="H5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="18" t="e">
+      <c r="I5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="18" t="e">
+      <c r="J5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="18" t="e">
+      <c r="K5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="18" t="e">
+      <c r="L5" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <f t="shared" si="2"/>
         <v>3947.2042857142851</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
         <v>5570</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>5663.75</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="D6">
+        <v>5625</v>
+      </c>
+      <c r="E6">
+        <v>5730</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="2">
         <v>5760.83</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
         <v>4716.25</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>4848.75</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="D7">
+        <v>4885</v>
+      </c>
+      <c r="E7">
+        <v>4917.5</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="2">
         <v>4892.92</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
         <v>3260</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>3438.75</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="D8">
+        <v>3427.5</v>
+      </c>
+      <c r="E8">
+        <v>3421.25</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="2">
         <v>3402.08</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
         <v>6175</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>6100</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9">
+        <v>6047.5</v>
+      </c>
+      <c r="E9">
+        <v>5973.75</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="2">
         <v>6063.13</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
         <v>2296.25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>2346.25</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="D10">
+        <v>2242.5</v>
+      </c>
+      <c r="E10">
+        <v>2268.75</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="2">
         <v>2326.88</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
         <v>4217.5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>4198.75</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="D11">
+        <v>4237.5</v>
+      </c>
+      <c r="E11">
+        <v>4196.25</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2">
         <v>4210</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10">
         <v>4302.5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>4313.75</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="D12">
+        <v>4346.25</v>
+      </c>
+      <c r="E12">
+        <v>4326.25</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="2">
         <v>4340.63</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
         <v>7306.25</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>7522.5</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="D13">
+        <v>7186.25</v>
+      </c>
+      <c r="E13">
+        <v>7461.25</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="2">
         <v>7376.25</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10">
         <v>3202.5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>3207.5</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="D14">
+        <v>3178.75</v>
+      </c>
+      <c r="E14">
+        <v>3162.5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="2">
         <v>3176.88</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10">
         <v>4372.5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>4245</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="D15">
+        <v>4268.75</v>
+      </c>
+      <c r="E15">
+        <v>4330</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="2">
         <v>4272.5</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10">
         <v>1928.75</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>1953.75</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="D16">
+        <v>1976.25</v>
+      </c>
+      <c r="E16">
+        <v>2007.5</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="2">
         <v>1994.38</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
         <v>3168.75</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>3185</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="D17">
+        <v>3211.25</v>
+      </c>
+      <c r="E17">
+        <v>3198.75</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="2">
         <v>3231.25</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
         <v>2050</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>2058.75</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="D18">
+        <v>2027.5</v>
+      </c>
+      <c r="E18">
+        <v>2036.25</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="2">
         <v>2061.25</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
         <v>2132.5</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>2158.75</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="D19">
+        <v>2188.75</v>
+      </c>
+      <c r="E19">
+        <v>2132.5</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2">
         <v>2151.88</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="e">
+      <c r="A20" s="15" t="e">
         <f>AVERAGE(A21:A34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <f>AVERAGE(B21:B34)</f>
         <v>4045.1807142857142</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f t="shared" ref="C20:M20" si="3">AVERAGE(C21:C34)</f>
         <v>4060.6714285714288</v>
       </c>
-      <c r="D20" s="13" t="e">
+      <c r="D20" s="11">
+        <f t="shared" si="3"/>
+        <v>4032.7678571428573</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="3"/>
+        <v>4064.375</v>
+      </c>
+      <c r="F20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="13" t="e">
+      <c r="G20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="13" t="e">
+      <c r="H20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="13" t="e">
+      <c r="I20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="13" t="e">
+      <c r="J20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13" t="e">
+      <c r="K20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="13" t="e">
+      <c r="L20" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="13" t="e">
+      <c r="M20" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="26">
+      <c r="N20" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
         <v>6127.5</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>6193.75</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="27" t="s">
+      <c r="D21">
+        <v>6032.5</v>
+      </c>
+      <c r="E21">
+        <v>6137.5</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10">
         <v>4955.63</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>5029.38</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="27" t="s">
+      <c r="D22">
+        <v>4865</v>
+      </c>
+      <c r="E22">
+        <v>5007.5</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10">
         <v>3368.13</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>3420.63</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="27" t="s">
+      <c r="D23">
+        <v>3285</v>
+      </c>
+      <c r="E23">
+        <v>3393.75</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10">
         <v>6524.38</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>6546.25</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="27" t="s">
+      <c r="D24">
+        <v>6486.25</v>
+      </c>
+      <c r="E24">
+        <v>6518.75</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10">
         <v>2887.5</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>2876.88</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="27" t="s">
+      <c r="D25">
+        <v>2835</v>
+      </c>
+      <c r="E25">
+        <v>2956.25</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10">
         <v>4841.88</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>4792.5</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="27" t="s">
+      <c r="D26">
+        <v>4880</v>
+      </c>
+      <c r="E26">
+        <v>4897.5</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10">
         <v>4216.25</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>4256.88</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="27" t="s">
+      <c r="D27">
+        <v>4270</v>
+      </c>
+      <c r="E27">
+        <v>4316.25</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10">
         <v>7070.63</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>7153.75</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="27" t="s">
+      <c r="D28">
+        <v>7161.25</v>
+      </c>
+      <c r="E28">
+        <v>7170</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10">
         <v>3442.5</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>3440</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="27" t="s">
+      <c r="D29">
+        <v>3378.75</v>
+      </c>
+      <c r="E29">
+        <v>3386.25</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10">
         <v>3923.75</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>3866.25</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="27" t="s">
+      <c r="D30">
+        <v>3922.5</v>
+      </c>
+      <c r="E30">
+        <v>3863.75</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10">
         <v>2001.25</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>2017.5</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="27" t="s">
+      <c r="D31">
+        <v>2063.75</v>
+      </c>
+      <c r="E31">
+        <v>1950</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10">
         <v>2778.13</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>2776.25</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="27" t="s">
+      <c r="D32">
+        <v>2762.5</v>
+      </c>
+      <c r="E32">
+        <v>2747.5</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10">
         <v>2222.5</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>2232.5</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="27" t="s">
+      <c r="D33">
+        <v>2271.25</v>
+      </c>
+      <c r="E33">
+        <v>2275</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18">
         <v>2272.5</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>2246.88</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="28" t="s">
+      <c r="D34" s="32">
+        <v>2245</v>
+      </c>
+      <c r="E34" s="32">
+        <v>2281.25</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2423,19 +2434,19 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>A4=SMALL($A4:$Z4,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="1" priority="44">
       <formula>A4=LARGE($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="0" priority="45">
       <formula>A4=LARGE($A4:$Z4,1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44910" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="49590" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -99,15 +99,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ACBR_iFAO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SCS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>TSR_LS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>1;w1,w1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR_RM</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -639,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -668,17 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -941,86 +923,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1391,48 +1373,52 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="5" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1450,19 +1436,25 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="29"/>
+      <c r="L2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1475,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
@@ -1487,950 +1479,1205 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="e">
         <f t="shared" ref="A4" si="0">AVERAGE(A6:A129)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <f>AVERAGE(B6:B19,B21:B34)</f>
         <v>3976.1171428571438</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <f t="shared" ref="C4:M4" si="1">AVERAGE(C6:C19,C21:C34)</f>
         <v>4003.2375000000006</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>3975.2678571428573</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>4002.2767857142858</v>
       </c>
-      <c r="F4" s="17" t="e">
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>3992.9025000000006</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>4004.7778571428576</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>3952.3439285714289</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="1"/>
+        <v>3987.7682142857147</v>
+      </c>
+      <c r="J4" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="17" t="e">
+      <c r="K4" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="17" t="e">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="19">
+        <v>3912.5892857142858</v>
+      </c>
+      <c r="M4" s="14">
         <f t="shared" si="1"/>
         <v>3947.2042857142851</v>
       </c>
-      <c r="N4" s="27"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="e">
+      <c r="A5" s="11" t="e">
         <f>AVERAGE(A6:A19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <f>AVERAGE(B6:B19)</f>
         <v>3907.0535714285716</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <f t="shared" ref="C5:M5" si="2">AVERAGE(C6:C19)</f>
         <v>3945.8035714285716</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <f t="shared" si="2"/>
         <v>3917.7678571428573</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f t="shared" si="2"/>
         <v>3940.1785714285716</v>
       </c>
-      <c r="F5" s="16" t="e">
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
+        <v>3917.2771428571432</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>3935.6707142857144</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
+        <v>3893.9285714285716</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="2"/>
+        <v>3909.1971428571428</v>
+      </c>
+      <c r="J5" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="16" t="e">
+      <c r="K5" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="16" t="e">
+      <c r="L5" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="20">
+        <v>3912.5892857142858</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="2"/>
         <v>3947.2042857142851</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
         <v>5570</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>5663.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5625</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5730</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="F6" s="1">
+        <v>5551.25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5664.38</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5483.75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5453.13</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="1">
+        <v>5547.5</v>
+      </c>
       <c r="M6" s="2">
         <v>5760.83</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
         <v>4716.25</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>4848.75</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>4885</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>4917.5</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="F7" s="1">
+        <v>4868.13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4926.25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4871.25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4925.63</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="1">
+        <v>4800</v>
+      </c>
       <c r="M7" s="2">
         <v>4892.92</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>3260</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>3438.75</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>3427.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3421.25</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="F8" s="1">
+        <v>3435</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3471.25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3286.25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3267.5</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="1">
+        <v>3460</v>
+      </c>
       <c r="M8" s="2">
         <v>3402.08</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
         <v>6175</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>6100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>6047.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>5973.75</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="F9" s="1">
+        <v>6068.75</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6034.38</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5906.25</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6028.75</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="1">
+        <v>6013.75</v>
+      </c>
       <c r="M9" s="2">
         <v>6063.13</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>2296.25</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>2346.25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2242.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2268.75</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="F10" s="1">
+        <v>2286.25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2288.13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2212.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2245</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="1">
+        <v>2327.5</v>
+      </c>
       <c r="M10" s="2">
         <v>2326.88</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7">
         <v>4217.5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>4198.75</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>4237.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>4196.25</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="F11" s="1">
+        <v>4053.75</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4160</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4153.75</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4135</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="1">
+        <v>4181.25</v>
+      </c>
       <c r="M11" s="2">
         <v>4210</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7">
         <v>4302.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>4313.75</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>4346.25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>4326.25</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="F12" s="1">
+        <v>4292.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4290</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4267.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4407.5</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="1">
+        <v>4318.75</v>
+      </c>
       <c r="M12" s="2">
         <v>4340.63</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
         <v>7306.25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>7522.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7186.25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>7461.25</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="F13" s="1">
+        <v>7407.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7495</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7455</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7463.75</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="1">
+        <v>7378.75</v>
+      </c>
       <c r="M13" s="2">
         <v>7376.25</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>3202.5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>3207.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>3178.75</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>3162.5</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="1">
+        <v>3182.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3140</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3110</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3187.5</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="1">
+        <v>3148.75</v>
+      </c>
       <c r="M14" s="2">
         <v>3176.88</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
         <v>4372.5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>4245</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>4268.75</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>4330</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="F15" s="1">
+        <v>4361.25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4196.25</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4367.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4243.75</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="1">
+        <v>4247.5</v>
+      </c>
       <c r="M15" s="2">
         <v>4272.5</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>1928.75</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>1953.75</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1976.25</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2007.5</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="F16" s="1">
+        <v>1936.25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2053.75</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2006.25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1981.25</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="1">
+        <v>2030</v>
+      </c>
       <c r="M16" s="2">
         <v>1994.38</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>3168.75</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>3185</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>3211.25</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>3198.75</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="F17" s="1">
+        <v>3248.75</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3183.75</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3215</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3182.5</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="1">
+        <v>3145</v>
+      </c>
       <c r="M17" s="2">
         <v>3231.25</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7">
         <v>2050</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>2058.75</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2027.5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>2036.25</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="F18" s="1">
+        <v>2001.25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2066.25</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2035</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2048.75</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="1">
+        <v>2048.75</v>
+      </c>
       <c r="M18" s="2">
         <v>2061.25</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7">
         <v>2132.5</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>2158.75</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>2188.75</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2132.5</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="F19" s="1">
+        <v>2148.75</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2130</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2145</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2158.75</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="1">
+        <v>2128.75</v>
+      </c>
       <c r="M19" s="2">
         <v>2151.88</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="e">
+      <c r="A20" s="10" t="e">
         <f>AVERAGE(A21:A34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <f>AVERAGE(B21:B34)</f>
         <v>4045.1807142857142</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <f t="shared" ref="C20:M20" si="3">AVERAGE(C21:C34)</f>
         <v>4060.6714285714288</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <f t="shared" si="3"/>
         <v>4032.7678571428573</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <f t="shared" si="3"/>
         <v>4064.375</v>
       </c>
-      <c r="F20" s="11" t="e">
+      <c r="F20" s="8">
+        <f t="shared" si="3"/>
+        <v>4068.5278571428571</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="3"/>
+        <v>4073.8849999999998</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="3"/>
+        <v>4010.7592857142859</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>4066.3392857142858</v>
+      </c>
+      <c r="J20" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="11" t="e">
+      <c r="K20" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="11" t="e">
+      <c r="L20" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="11" t="e">
+      <c r="M20" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="N20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
         <v>6127.5</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>6193.75</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>6032.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>6137.5</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="23" t="s">
+      <c r="F21" s="7">
+        <v>6251.25</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6352.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6033.13</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6188.75</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
         <v>4955.63</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>5029.38</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>4865</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>5007.5</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="23" t="s">
+      <c r="F22" s="7">
+        <v>5050</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4988.13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4902.5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5052.5</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
         <v>3368.13</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>3420.63</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>3285</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>3393.75</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="23" t="s">
+      <c r="F23" s="7">
+        <v>3368.13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3374.38</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3308.75</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3403.75</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
         <v>6524.38</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>6546.25</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>6486.25</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>6518.75</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="23" t="s">
+      <c r="F24" s="7">
+        <v>6620.63</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6617.5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6485</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6625</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>2887.5</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>2876.88</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2835</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2956.25</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="23" t="s">
+      <c r="F25" s="7">
+        <v>2913.75</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2867.5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2640</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2738.75</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
         <v>4841.88</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>4792.5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>4880</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>4897.5</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="23" t="s">
+      <c r="F26" s="7">
+        <v>4874.38</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4815.63</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4901.25</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4762.5</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7">
         <v>4216.25</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>4256.88</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>4270</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>4316.25</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="23" t="s">
+      <c r="F27" s="7">
+        <v>4286.25</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4246.25</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4262.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4223.75</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
         <v>7070.63</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>7153.75</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>7161.25</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>7170</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="23" t="s">
+      <c r="F28" s="7">
+        <v>7128.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7265</v>
+      </c>
+      <c r="H28" s="7">
+        <v>7105</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7242.5</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
         <v>3442.5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>3440</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>3378.75</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>3386.25</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="23" t="s">
+      <c r="F29" s="7">
+        <v>3411.25</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3390</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3412.5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3498.75</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7">
         <v>3923.75</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>3866.25</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>3922.5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>3863.75</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="23" t="s">
+      <c r="F30" s="7">
+        <v>3841.25</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3801.25</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3895</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3893.75</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7">
         <v>2001.25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>2017.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2063.75</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1950</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="23" t="s">
+      <c r="F31" s="7">
+        <v>1951.25</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1965</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1993.75</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2010</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
         <v>2778.13</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>2776.25</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>2762.5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2747.5</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="23" t="s">
+      <c r="F32" s="7">
+        <v>2687.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2822.5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2783.75</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2767.5</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7">
         <v>2222.5</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>2232.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2271.25</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>2275</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="23" t="s">
+      <c r="F33" s="7">
+        <v>2291.25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2272.5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2212.5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2250</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13">
         <v>2272.5</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="13">
         <v>2246.88</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="26">
         <v>2245</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="26">
         <v>2281.25</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="24" t="s">
+      <c r="F34" s="13">
+        <v>2283.75</v>
+      </c>
+      <c r="G34" s="26">
+        <v>2256.25</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2215</v>
+      </c>
+      <c r="I34" s="13">
+        <v>2271.25</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="49590" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="51930" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SCS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TSR_LS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -112,6 +108,18 @@
   </si>
   <si>
     <t>TSR_RM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR_LS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR_RMIE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -971,6 +979,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,9 +992,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1373,21 +1381,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
+      <c r="A1" s="24"/>
       <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1407,7 @@
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30" t="s">
@@ -1417,8 +1423,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1442,19 +1448,23 @@
       <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1467,35 +1477,35 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="e">
+      <c r="A4" s="3">
         <f t="shared" ref="A4" si="0">AVERAGE(A6:A129)</f>
-        <v>#DIV/0!</v>
+        <v>9999</v>
       </c>
       <c r="B4" s="12">
         <f>AVERAGE(B6:B19,B21:B34)</f>
@@ -1529,28 +1539,28 @@
         <f t="shared" si="1"/>
         <v>3987.7682142857147</v>
       </c>
-      <c r="J4" s="12" t="e">
+      <c r="J4" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="12" t="e">
+        <v>3946.9650000000001</v>
+      </c>
+      <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3968.3264285714286</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="1"/>
-        <v>3912.5892857142858</v>
+        <v>3925.4246428571428</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="1"/>
-        <v>3947.2042857142851</v>
+        <v>3969.9782142857143</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="e">
+      <c r="A5" s="11">
         <f>AVERAGE(A6:A19)</f>
-        <v>#DIV/0!</v>
+        <v>9999</v>
       </c>
       <c r="B5" s="11">
         <f>AVERAGE(B6:B19)</f>
@@ -1584,28 +1594,30 @@
         <f t="shared" si="2"/>
         <v>3909.1971428571428</v>
       </c>
-      <c r="J5" s="11" t="e">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="11" t="e">
+        <v>3871.0721428571428</v>
+      </c>
+      <c r="K5" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3909.4200000000005</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="2"/>
-        <v>3912.5892857142858</v>
+        <v>3866.3842857142859</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="2"/>
-        <v>3947.2042857142851</v>
+        <v>3896.6521428571432</v>
       </c>
       <c r="N5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>9999</v>
+      </c>
       <c r="B6" s="7">
         <v>5570</v>
       </c>
@@ -1630,15 +1642,19 @@
       <c r="I6" s="1">
         <v>5453.13</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7">
+        <v>5345.63</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5487.5</v>
+      </c>
       <c r="L6" s="1">
-        <v>5547.5</v>
+        <v>5449.38</v>
       </c>
       <c r="M6" s="2">
-        <v>5760.83</v>
-      </c>
-      <c r="N6" s="22" t="s">
+        <v>5401.88</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1668,15 +1684,19 @@
       <c r="I7" s="1">
         <v>4925.63</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7">
+        <v>4848.75</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4821.25</v>
+      </c>
       <c r="L7" s="1">
-        <v>4800</v>
+        <v>4726.25</v>
       </c>
       <c r="M7" s="2">
-        <v>4892.92</v>
-      </c>
-      <c r="N7" s="22" t="s">
+        <v>4845</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1706,15 +1726,19 @@
       <c r="I8" s="1">
         <v>3267.5</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7">
+        <v>3288.75</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3336.88</v>
+      </c>
       <c r="L8" s="1">
-        <v>3460</v>
+        <v>3187.5</v>
       </c>
       <c r="M8" s="2">
-        <v>3402.08</v>
-      </c>
-      <c r="N8" s="22" t="s">
+        <v>3311.25</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1744,15 +1768,19 @@
       <c r="I9" s="1">
         <v>6028.75</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7">
+        <v>5874.38</v>
+      </c>
+      <c r="K9" s="7">
+        <v>5941.25</v>
+      </c>
       <c r="L9" s="1">
-        <v>6013.75</v>
+        <v>5892.5</v>
       </c>
       <c r="M9" s="2">
-        <v>6063.13</v>
-      </c>
-      <c r="N9" s="22" t="s">
+        <v>5875</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1782,15 +1810,19 @@
       <c r="I10" s="1">
         <v>2245</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7">
+        <v>2330</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2287.5</v>
+      </c>
       <c r="L10" s="1">
-        <v>2327.5</v>
+        <v>2260</v>
       </c>
       <c r="M10" s="2">
-        <v>2326.88</v>
-      </c>
-      <c r="N10" s="22" t="s">
+        <v>2338.75</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1820,15 +1852,19 @@
       <c r="I11" s="1">
         <v>4135</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="7">
+        <v>4165</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4236.25</v>
+      </c>
       <c r="L11" s="1">
-        <v>4181.25</v>
+        <v>4238.75</v>
       </c>
       <c r="M11" s="2">
-        <v>4210</v>
-      </c>
-      <c r="N11" s="22" t="s">
+        <v>4173.75</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1858,15 +1894,19 @@
       <c r="I12" s="1">
         <v>4407.5</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="7">
+        <v>4405</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4422.5</v>
+      </c>
       <c r="L12" s="1">
-        <v>4318.75</v>
+        <v>4305</v>
       </c>
       <c r="M12" s="2">
-        <v>4340.63</v>
-      </c>
-      <c r="N12" s="22" t="s">
+        <v>4386.25</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1896,15 +1936,19 @@
       <c r="I13" s="1">
         <v>7463.75</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="7">
+        <v>7232.5</v>
+      </c>
+      <c r="K13" s="7">
+        <v>7235</v>
+      </c>
       <c r="L13" s="1">
-        <v>7378.75</v>
+        <v>7158.75</v>
       </c>
       <c r="M13" s="2">
-        <v>7376.25</v>
-      </c>
-      <c r="N13" s="22" t="s">
+        <v>7400</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1934,15 +1978,19 @@
       <c r="I14" s="1">
         <v>3187.5</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="7">
+        <v>3181.25</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3337.5</v>
+      </c>
       <c r="L14" s="1">
-        <v>3148.75</v>
+        <v>3263.75</v>
       </c>
       <c r="M14" s="2">
-        <v>3176.88</v>
-      </c>
-      <c r="N14" s="22" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1972,15 +2020,19 @@
       <c r="I15" s="1">
         <v>4243.75</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="7">
+        <v>4168.75</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4273.75</v>
+      </c>
       <c r="L15" s="1">
-        <v>4247.5</v>
+        <v>4301.25</v>
       </c>
       <c r="M15" s="2">
-        <v>4272.5</v>
-      </c>
-      <c r="N15" s="22" t="s">
+        <v>4252.5</v>
+      </c>
+      <c r="N15" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2010,15 +2062,19 @@
       <c r="I16" s="1">
         <v>1981.25</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="7">
+        <v>1932.5</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1956.25</v>
+      </c>
       <c r="L16" s="1">
-        <v>2030</v>
+        <v>1931.25</v>
       </c>
       <c r="M16" s="2">
-        <v>1994.38</v>
-      </c>
-      <c r="N16" s="22" t="s">
+        <v>1955</v>
+      </c>
+      <c r="N16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2048,15 +2104,19 @@
       <c r="I17" s="1">
         <v>3182.5</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7">
+        <v>3281.25</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3208.75</v>
+      </c>
       <c r="L17" s="1">
-        <v>3145</v>
+        <v>3180</v>
       </c>
       <c r="M17" s="2">
-        <v>3231.25</v>
-      </c>
-      <c r="N17" s="22" t="s">
+        <v>3233.75</v>
+      </c>
+      <c r="N17" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2086,15 +2146,19 @@
       <c r="I18" s="1">
         <v>2048.75</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="7">
+        <v>2023.75</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2072.5</v>
+      </c>
       <c r="L18" s="1">
-        <v>2048.75</v>
+        <v>2091.25</v>
       </c>
       <c r="M18" s="2">
-        <v>2061.25</v>
-      </c>
-      <c r="N18" s="22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N18" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2124,22 +2188,26 @@
       <c r="I19" s="1">
         <v>2158.75</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="7">
+        <v>2117.5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2115</v>
+      </c>
       <c r="L19" s="1">
-        <v>2128.75</v>
+        <v>2143.75</v>
       </c>
       <c r="M19" s="2">
-        <v>2151.88</v>
-      </c>
-      <c r="N19" s="22" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N19" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="e">
+      <c r="A20" s="10">
         <f>AVERAGE(A21:A34)</f>
-        <v>#DIV/0!</v>
+        <v>9999</v>
       </c>
       <c r="B20" s="10">
         <f>AVERAGE(B21:B34)</f>
@@ -2173,28 +2241,30 @@
         <f t="shared" si="3"/>
         <v>4066.3392857142858</v>
       </c>
-      <c r="J20" s="8" t="e">
+      <c r="J20" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="8" t="e">
+        <v>4022.8578571428575</v>
+      </c>
+      <c r="K20" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="8" t="e">
+        <v>4027.2328571428575</v>
+      </c>
+      <c r="L20" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="9" t="e">
+        <v>3984.4650000000001</v>
+      </c>
+      <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4043.3042857142859</v>
       </c>
       <c r="N20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>9999</v>
+      </c>
       <c r="B21" s="7">
         <v>6127.5</v>
       </c>
@@ -2219,11 +2289,19 @@
       <c r="I21" s="7">
         <v>6188.75</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="22" t="s">
+      <c r="J21" s="7">
+        <v>5549.38</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5898.13</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5855.63</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5829.38</v>
+      </c>
+      <c r="N21" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2253,11 +2331,19 @@
       <c r="I22" s="7">
         <v>5052.5</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="22" t="s">
+      <c r="J22" s="7">
+        <v>5178.75</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5159.38</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5043.13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5094.38</v>
+      </c>
+      <c r="N22" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2287,11 +2373,19 @@
       <c r="I23" s="7">
         <v>3403.75</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="22" t="s">
+      <c r="J23" s="7">
+        <v>3466.88</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3405</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3363.75</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3486.25</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2321,11 +2415,19 @@
       <c r="I24" s="7">
         <v>6625</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="22" t="s">
+      <c r="J24" s="7">
+        <v>6303.75</v>
+      </c>
+      <c r="K24" s="7">
+        <v>6375</v>
+      </c>
+      <c r="L24" s="7">
+        <v>6390</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6435</v>
+      </c>
+      <c r="N24" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2355,11 +2457,19 @@
       <c r="I25" s="7">
         <v>2738.75</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="22" t="s">
+      <c r="J25" s="7">
+        <v>2785</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2843.75</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2716.25</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2842.5</v>
+      </c>
+      <c r="N25" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2389,11 +2499,19 @@
       <c r="I26" s="7">
         <v>4762.5</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="22" t="s">
+      <c r="J26" s="7">
+        <v>4920</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4685</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4703.75</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4891.25</v>
+      </c>
+      <c r="N26" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2423,11 +2541,19 @@
       <c r="I27" s="7">
         <v>4223.75</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="22" t="s">
+      <c r="J27" s="7">
+        <v>4221.25</v>
+      </c>
+      <c r="K27" s="7">
+        <v>4242.5</v>
+      </c>
+      <c r="L27" s="7">
+        <v>4313.75</v>
+      </c>
+      <c r="M27" s="7">
+        <v>4182.5</v>
+      </c>
+      <c r="N27" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2457,11 +2583,19 @@
       <c r="I28" s="7">
         <v>7242.5</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="22" t="s">
+      <c r="J28" s="7">
+        <v>7137.5</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7090</v>
+      </c>
+      <c r="L28" s="7">
+        <v>6960</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7100</v>
+      </c>
+      <c r="N28" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2491,11 +2625,19 @@
       <c r="I29" s="7">
         <v>3498.75</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="22" t="s">
+      <c r="J29" s="7">
+        <v>3470</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3552.5</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3440</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3522.5</v>
+      </c>
+      <c r="N29" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2525,11 +2667,19 @@
       <c r="I30" s="7">
         <v>3893.75</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="22" t="s">
+      <c r="J30" s="7">
+        <v>3890</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3846.25</v>
+      </c>
+      <c r="L30" s="7">
+        <v>3877.5</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3971.25</v>
+      </c>
+      <c r="N30" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2559,11 +2709,19 @@
       <c r="I31" s="7">
         <v>2010</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="22" t="s">
+      <c r="J31" s="7">
+        <v>2010</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1980</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1940</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1953.75</v>
+      </c>
+      <c r="N31" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2593,11 +2751,19 @@
       <c r="I32" s="7">
         <v>2767.5</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="22" t="s">
+      <c r="J32" s="7">
+        <v>2850</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2792.5</v>
+      </c>
+      <c r="L32" s="7">
+        <v>2700</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2762.5</v>
+      </c>
+      <c r="N32" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2627,11 +2793,19 @@
       <c r="I33" s="7">
         <v>2250</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="22" t="s">
+      <c r="J33" s="7">
+        <v>2267.5</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2286.25</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2243.75</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2248.75</v>
+      </c>
+      <c r="N33" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2643,16 +2817,16 @@
       <c r="C34" s="13">
         <v>2246.88</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>2245</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="22">
         <v>2281.25</v>
       </c>
       <c r="F34" s="13">
         <v>2283.75</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="22">
         <v>2256.25</v>
       </c>
       <c r="H34" s="13">
@@ -2661,10 +2835,18 @@
       <c r="I34" s="13">
         <v>2271.25</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="J34" s="13">
+        <v>2270</v>
+      </c>
+      <c r="K34" s="13">
+        <v>2225</v>
+      </c>
+      <c r="L34" s="13">
+        <v>2235</v>
+      </c>
+      <c r="M34" s="13">
+        <v>2286.25</v>
+      </c>
       <c r="N34" s="18" t="s">
         <v>15</v>
       </c>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51930" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="54270" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -71,10 +71,6 @@
     <t>n030w4</t>
   </si>
   <si>
-    <t>1;w1,n0.25</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1;w1,w1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -120,6 +116,28 @@
   </si>
   <si>
     <t>TSR_RMIE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;w1,w1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACBR_iBNO</t>
+  </si>
+  <si>
+    <t>TSR_RMIE</t>
+  </si>
+  <si>
+    <t>1;w1,w1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;w1,w1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1075,77 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1381,81 +1469,84 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="B1" s="29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="31" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>1</v>
@@ -1463,12 +1554,14 @@
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="26" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
@@ -1477,137 +1570,135 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4" si="0">AVERAGE(A6:A129)</f>
-        <v>9999</v>
+        <v>3925.4246428571428</v>
       </c>
       <c r="B4" s="12">
         <f>AVERAGE(B6:B19,B21:B34)</f>
-        <v>3976.1171428571438</v>
+        <v>3939.7328571428575</v>
       </c>
       <c r="C4" s="12">
-        <f t="shared" ref="C4:M4" si="1">AVERAGE(C6:C19,C21:C34)</f>
-        <v>4003.2375000000006</v>
+        <f t="shared" ref="C4:M4" si="0">AVERAGE(C6:C19,C21:C34)</f>
+        <v>3985.8039285714285</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3975.2678571428573</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4002.2767857142858</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3992.9025000000006</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4004.7778571428576</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3952.3439285714289</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3987.7682142857147</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="1"/>
-        <v>3946.9650000000001</v>
+        <f t="shared" si="0"/>
+        <v>3948.2814285714289</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="1"/>
-        <v>3968.3264285714286</v>
+        <f t="shared" si="0"/>
+        <v>3949.9553571428573</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3925.4246428571428</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3969.9782142857143</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <f>AVERAGE(A6:A19)</f>
-        <v>9999</v>
+        <v>3866.3842857142859</v>
       </c>
       <c r="B5" s="11">
         <f>AVERAGE(B6:B19)</f>
-        <v>3907.0535714285716</v>
+        <v>3867.4114285714286</v>
       </c>
       <c r="C5" s="11">
-        <f t="shared" ref="C5:M5" si="2">AVERAGE(C6:C19)</f>
-        <v>3945.8035714285716</v>
+        <f t="shared" ref="C5:M5" si="1">AVERAGE(C6:C19)</f>
+        <v>3935.4464285714284</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3917.7678571428573</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3940.1785714285716</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3917.2771428571432</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3935.6707142857144</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3893.9285714285716</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3909.1971428571428</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" si="2"/>
-        <v>3871.0721428571428</v>
+        <f t="shared" si="1"/>
+        <v>3887.8571428571427</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="2"/>
-        <v>3909.4200000000005</v>
+        <f t="shared" si="1"/>
+        <v>3891.6964285714284</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3866.3842857142859</v>
       </c>
       <c r="M5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3896.6521428571432</v>
       </c>
       <c r="N5" s="20">
@@ -1616,13 +1707,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
-        <v>9999</v>
+        <v>5449.38</v>
       </c>
       <c r="B6" s="7">
+        <v>5441.88</v>
+      </c>
+      <c r="C6" s="7">
         <v>5570</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5663.75</v>
       </c>
       <c r="D6" s="1">
         <v>5625</v>
@@ -1643,10 +1734,10 @@
         <v>5453.13</v>
       </c>
       <c r="J6" s="7">
-        <v>5345.63</v>
+        <v>5382.5</v>
       </c>
       <c r="K6" s="7">
-        <v>5487.5</v>
+        <v>5536.25</v>
       </c>
       <c r="L6" s="1">
         <v>5449.38</v>
@@ -1659,12 +1750,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>4726.25</v>
+      </c>
       <c r="B7" s="7">
-        <v>4716.25</v>
+        <v>4749.38</v>
       </c>
       <c r="C7" s="7">
-        <v>4848.75</v>
+        <v>4880</v>
       </c>
       <c r="D7" s="1">
         <v>4885</v>
@@ -1685,10 +1778,10 @@
         <v>4925.63</v>
       </c>
       <c r="J7" s="7">
-        <v>4848.75</v>
+        <v>4796.25</v>
       </c>
       <c r="K7" s="7">
-        <v>4821.25</v>
+        <v>4872.5</v>
       </c>
       <c r="L7" s="1">
         <v>4726.25</v>
@@ -1701,12 +1794,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>3187.5</v>
+      </c>
       <c r="B8" s="7">
-        <v>3260</v>
+        <v>3385</v>
       </c>
       <c r="C8" s="7">
-        <v>3438.75</v>
+        <v>3386.25</v>
       </c>
       <c r="D8" s="1">
         <v>3427.5</v>
@@ -1727,10 +1822,10 @@
         <v>3267.5</v>
       </c>
       <c r="J8" s="7">
-        <v>3288.75</v>
+        <v>3300</v>
       </c>
       <c r="K8" s="7">
-        <v>3336.88</v>
+        <v>3307.5</v>
       </c>
       <c r="L8" s="1">
         <v>3187.5</v>
@@ -1743,12 +1838,14 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>5892.5</v>
+      </c>
       <c r="B9" s="7">
-        <v>6175</v>
+        <v>5887.5</v>
       </c>
       <c r="C9" s="7">
-        <v>6100</v>
+        <v>5986.25</v>
       </c>
       <c r="D9" s="1">
         <v>6047.5</v>
@@ -1769,10 +1866,10 @@
         <v>6028.75</v>
       </c>
       <c r="J9" s="7">
-        <v>5874.38</v>
+        <v>5945</v>
       </c>
       <c r="K9" s="7">
-        <v>5941.25</v>
+        <v>5862.5</v>
       </c>
       <c r="L9" s="1">
         <v>5892.5</v>
@@ -1785,12 +1882,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>2260</v>
+      </c>
       <c r="B10" s="7">
-        <v>2296.25</v>
+        <v>2261.25</v>
       </c>
       <c r="C10" s="7">
-        <v>2346.25</v>
+        <v>2358.75</v>
       </c>
       <c r="D10" s="1">
         <v>2242.5</v>
@@ -1811,10 +1910,10 @@
         <v>2245</v>
       </c>
       <c r="J10" s="7">
-        <v>2330</v>
+        <v>2313.75</v>
       </c>
       <c r="K10" s="7">
-        <v>2287.5</v>
+        <v>2206.25</v>
       </c>
       <c r="L10" s="1">
         <v>2260</v>
@@ -1827,12 +1926,14 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>4238.75</v>
+      </c>
       <c r="B11" s="7">
-        <v>4217.5</v>
+        <v>4101.25</v>
       </c>
       <c r="C11" s="7">
-        <v>4198.75</v>
+        <v>4233.75</v>
       </c>
       <c r="D11" s="1">
         <v>4237.5</v>
@@ -1853,10 +1954,10 @@
         <v>4135</v>
       </c>
       <c r="J11" s="7">
-        <v>4165</v>
+        <v>4205</v>
       </c>
       <c r="K11" s="7">
-        <v>4236.25</v>
+        <v>4090</v>
       </c>
       <c r="L11" s="1">
         <v>4238.75</v>
@@ -1869,12 +1970,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6">
+        <v>4305</v>
+      </c>
       <c r="B12" s="7">
-        <v>4302.5</v>
+        <v>4330</v>
       </c>
       <c r="C12" s="7">
-        <v>4313.75</v>
+        <v>4315</v>
       </c>
       <c r="D12" s="1">
         <v>4346.25</v>
@@ -1895,10 +1998,10 @@
         <v>4407.5</v>
       </c>
       <c r="J12" s="7">
-        <v>4405</v>
+        <v>4363.75</v>
       </c>
       <c r="K12" s="7">
-        <v>4422.5</v>
+        <v>4302.5</v>
       </c>
       <c r="L12" s="1">
         <v>4305</v>
@@ -1911,12 +2014,14 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <v>7158.75</v>
+      </c>
       <c r="B13" s="7">
-        <v>7306.25</v>
+        <v>7301.25</v>
       </c>
       <c r="C13" s="7">
-        <v>7522.5</v>
+        <v>7485</v>
       </c>
       <c r="D13" s="1">
         <v>7186.25</v>
@@ -1937,10 +2042,10 @@
         <v>7463.75</v>
       </c>
       <c r="J13" s="7">
-        <v>7232.5</v>
+        <v>7181.25</v>
       </c>
       <c r="K13" s="7">
-        <v>7235</v>
+        <v>7312.5</v>
       </c>
       <c r="L13" s="1">
         <v>7158.75</v>
@@ -1953,12 +2058,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>3263.75</v>
+      </c>
       <c r="B14" s="7">
-        <v>3202.5</v>
+        <v>3277.5</v>
       </c>
       <c r="C14" s="7">
-        <v>3207.5</v>
+        <v>3252.5</v>
       </c>
       <c r="D14" s="1">
         <v>3178.75</v>
@@ -1979,10 +2086,10 @@
         <v>3187.5</v>
       </c>
       <c r="J14" s="7">
-        <v>3181.25</v>
+        <v>3207.5</v>
       </c>
       <c r="K14" s="7">
-        <v>3337.5</v>
+        <v>3263.75</v>
       </c>
       <c r="L14" s="1">
         <v>3263.75</v>
@@ -1995,12 +2102,14 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>4301.25</v>
+      </c>
       <c r="B15" s="7">
-        <v>4372.5</v>
+        <v>4173.75</v>
       </c>
       <c r="C15" s="7">
-        <v>4245</v>
+        <v>4253.75</v>
       </c>
       <c r="D15" s="1">
         <v>4268.75</v>
@@ -2021,10 +2130,10 @@
         <v>4243.75</v>
       </c>
       <c r="J15" s="7">
-        <v>4168.75</v>
+        <v>4377.5</v>
       </c>
       <c r="K15" s="7">
-        <v>4273.75</v>
+        <v>4321.25</v>
       </c>
       <c r="L15" s="1">
         <v>4301.25</v>
@@ -2037,12 +2146,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>1931.25</v>
+      </c>
       <c r="B16" s="7">
-        <v>1928.75</v>
+        <v>1960</v>
       </c>
       <c r="C16" s="7">
-        <v>1953.75</v>
+        <v>2002.5</v>
       </c>
       <c r="D16" s="1">
         <v>1976.25</v>
@@ -2063,10 +2174,10 @@
         <v>1981.25</v>
       </c>
       <c r="J16" s="7">
-        <v>1932.5</v>
+        <v>1921.25</v>
       </c>
       <c r="K16" s="7">
-        <v>1956.25</v>
+        <v>1912.5</v>
       </c>
       <c r="L16" s="1">
         <v>1931.25</v>
@@ -2079,12 +2190,14 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>3180</v>
+      </c>
       <c r="B17" s="7">
-        <v>3168.75</v>
+        <v>3115</v>
       </c>
       <c r="C17" s="7">
-        <v>3185</v>
+        <v>3145</v>
       </c>
       <c r="D17" s="1">
         <v>3211.25</v>
@@ -2105,10 +2218,10 @@
         <v>3182.5</v>
       </c>
       <c r="J17" s="7">
-        <v>3281.25</v>
+        <v>3238.75</v>
       </c>
       <c r="K17" s="7">
-        <v>3208.75</v>
+        <v>3250</v>
       </c>
       <c r="L17" s="1">
         <v>3180</v>
@@ -2121,12 +2234,14 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6">
+        <v>2091.25</v>
+      </c>
       <c r="B18" s="7">
-        <v>2050</v>
+        <v>2036.25</v>
       </c>
       <c r="C18" s="7">
-        <v>2058.75</v>
+        <v>2043.75</v>
       </c>
       <c r="D18" s="1">
         <v>2027.5</v>
@@ -2147,10 +2262,10 @@
         <v>2048.75</v>
       </c>
       <c r="J18" s="7">
-        <v>2023.75</v>
+        <v>2046.25</v>
       </c>
       <c r="K18" s="7">
-        <v>2072.5</v>
+        <v>2067.5</v>
       </c>
       <c r="L18" s="1">
         <v>2091.25</v>
@@ -2163,12 +2278,14 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>2143.75</v>
+      </c>
       <c r="B19" s="7">
-        <v>2132.5</v>
+        <v>2123.75</v>
       </c>
       <c r="C19" s="7">
-        <v>2158.75</v>
+        <v>2183.75</v>
       </c>
       <c r="D19" s="1">
         <v>2188.75</v>
@@ -2189,10 +2306,10 @@
         <v>2158.75</v>
       </c>
       <c r="J19" s="7">
-        <v>2117.5</v>
+        <v>2151.25</v>
       </c>
       <c r="K19" s="7">
-        <v>2115</v>
+        <v>2178.75</v>
       </c>
       <c r="L19" s="1">
         <v>2143.75</v>
@@ -2206,55 +2323,54 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
-        <f>AVERAGE(A21:A34)</f>
-        <v>9999</v>
+        <v>3984.4650000000001</v>
       </c>
       <c r="B20" s="10">
         <f>AVERAGE(B21:B34)</f>
-        <v>4045.1807142857142</v>
+        <v>4012.0542857142859</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" ref="C20:M20" si="3">AVERAGE(C21:C34)</f>
-        <v>4060.6714285714288</v>
+        <f t="shared" ref="C20:M20" si="2">AVERAGE(C21:C34)</f>
+        <v>4036.1614285714286</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4032.7678571428573</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4064.375</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4068.5278571428571</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4073.8849999999998</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4010.7592857142859</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4066.3392857142858</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="3"/>
-        <v>4022.8578571428575</v>
+        <f t="shared" si="2"/>
+        <v>4008.7057142857147</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="3"/>
-        <v>4027.2328571428575</v>
+        <f t="shared" si="2"/>
+        <v>4008.2142857142858</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3984.4650000000001</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4043.3042857142859</v>
       </c>
       <c r="N20" s="17">
@@ -2263,13 +2379,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>9999</v>
+        <v>5855.63</v>
       </c>
       <c r="B21" s="7">
-        <v>6127.5</v>
+        <v>5901.25</v>
       </c>
       <c r="C21" s="7">
-        <v>6193.75</v>
+        <v>5943.13</v>
       </c>
       <c r="D21" s="1">
         <v>6032.5</v>
@@ -2290,10 +2406,10 @@
         <v>6188.75</v>
       </c>
       <c r="J21" s="7">
-        <v>5549.38</v>
+        <v>5711.88</v>
       </c>
       <c r="K21" s="7">
-        <v>5898.13</v>
+        <v>5855</v>
       </c>
       <c r="L21" s="7">
         <v>5855.63</v>
@@ -2306,12 +2422,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>5043.13</v>
+      </c>
       <c r="B22" s="7">
-        <v>4955.63</v>
+        <v>4885.63</v>
       </c>
       <c r="C22" s="7">
-        <v>5029.38</v>
+        <v>4999.38</v>
       </c>
       <c r="D22" s="1">
         <v>4865</v>
@@ -2332,10 +2450,10 @@
         <v>5052.5</v>
       </c>
       <c r="J22" s="7">
-        <v>5178.75</v>
+        <v>5090</v>
       </c>
       <c r="K22" s="7">
-        <v>5159.38</v>
+        <v>4988.75</v>
       </c>
       <c r="L22" s="7">
         <v>5043.13</v>
@@ -2348,12 +2466,14 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>3363.75</v>
+      </c>
       <c r="B23" s="7">
-        <v>3368.13</v>
+        <v>3321.88</v>
       </c>
       <c r="C23" s="7">
-        <v>3420.63</v>
+        <v>3410</v>
       </c>
       <c r="D23" s="1">
         <v>3285</v>
@@ -2374,10 +2494,10 @@
         <v>3403.75</v>
       </c>
       <c r="J23" s="7">
-        <v>3466.88</v>
+        <v>3377.5</v>
       </c>
       <c r="K23" s="7">
-        <v>3405</v>
+        <v>3312.5</v>
       </c>
       <c r="L23" s="7">
         <v>3363.75</v>
@@ -2390,12 +2510,14 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6">
+        <v>6390</v>
+      </c>
       <c r="B24" s="7">
-        <v>6524.38</v>
+        <v>6413.75</v>
       </c>
       <c r="C24" s="7">
-        <v>6546.25</v>
+        <v>6637.5</v>
       </c>
       <c r="D24" s="1">
         <v>6486.25</v>
@@ -2416,10 +2538,10 @@
         <v>6625</v>
       </c>
       <c r="J24" s="7">
-        <v>6303.75</v>
+        <v>6420</v>
       </c>
       <c r="K24" s="7">
-        <v>6375</v>
+        <v>6308.75</v>
       </c>
       <c r="L24" s="7">
         <v>6390</v>
@@ -2432,12 +2554,14 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>2716.25</v>
+      </c>
       <c r="B25" s="7">
-        <v>2887.5</v>
+        <v>2903.75</v>
       </c>
       <c r="C25" s="7">
-        <v>2876.88</v>
+        <v>2812.5</v>
       </c>
       <c r="D25" s="1">
         <v>2835</v>
@@ -2458,10 +2582,10 @@
         <v>2738.75</v>
       </c>
       <c r="J25" s="7">
-        <v>2785</v>
+        <v>2962.5</v>
       </c>
       <c r="K25" s="7">
-        <v>2843.75</v>
+        <v>2871.25</v>
       </c>
       <c r="L25" s="7">
         <v>2716.25</v>
@@ -2474,12 +2598,14 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>4703.75</v>
+      </c>
       <c r="B26" s="7">
-        <v>4841.88</v>
+        <v>4685</v>
       </c>
       <c r="C26" s="7">
-        <v>4792.5</v>
+        <v>4672.5</v>
       </c>
       <c r="D26" s="1">
         <v>4880</v>
@@ -2500,10 +2626,10 @@
         <v>4762.5</v>
       </c>
       <c r="J26" s="7">
-        <v>4920</v>
+        <v>4787.5</v>
       </c>
       <c r="K26" s="7">
-        <v>4685</v>
+        <v>4782.5</v>
       </c>
       <c r="L26" s="7">
         <v>4703.75</v>
@@ -2516,12 +2642,14 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>4313.75</v>
+      </c>
       <c r="B27" s="7">
-        <v>4216.25</v>
+        <v>4353.75</v>
       </c>
       <c r="C27" s="7">
-        <v>4256.88</v>
+        <v>4251.25</v>
       </c>
       <c r="D27" s="1">
         <v>4270</v>
@@ -2542,10 +2670,10 @@
         <v>4223.75</v>
       </c>
       <c r="J27" s="7">
-        <v>4221.25</v>
+        <v>4222.5</v>
       </c>
       <c r="K27" s="7">
-        <v>4242.5</v>
+        <v>4306.25</v>
       </c>
       <c r="L27" s="7">
         <v>4313.75</v>
@@ -2558,12 +2686,14 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>6960</v>
+      </c>
       <c r="B28" s="7">
-        <v>7070.63</v>
+        <v>7101.25</v>
       </c>
       <c r="C28" s="7">
-        <v>7153.75</v>
+        <v>7102.5</v>
       </c>
       <c r="D28" s="1">
         <v>7161.25</v>
@@ -2584,10 +2714,10 @@
         <v>7242.5</v>
       </c>
       <c r="J28" s="7">
-        <v>7137.5</v>
+        <v>6893.75</v>
       </c>
       <c r="K28" s="7">
-        <v>7090</v>
+        <v>6992.5</v>
       </c>
       <c r="L28" s="7">
         <v>6960</v>
@@ -2600,12 +2730,14 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>3440</v>
+      </c>
       <c r="B29" s="7">
+        <v>3438.75</v>
+      </c>
+      <c r="C29" s="7">
         <v>3442.5</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3440</v>
       </c>
       <c r="D29" s="1">
         <v>3378.75</v>
@@ -2626,10 +2758,10 @@
         <v>3498.75</v>
       </c>
       <c r="J29" s="7">
-        <v>3470</v>
+        <v>3460</v>
       </c>
       <c r="K29" s="7">
-        <v>3552.5</v>
+        <v>3472.5</v>
       </c>
       <c r="L29" s="7">
         <v>3440</v>
@@ -2642,12 +2774,14 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6">
+        <v>3877.5</v>
+      </c>
       <c r="B30" s="7">
-        <v>3923.75</v>
+        <v>3872.5</v>
       </c>
       <c r="C30" s="7">
-        <v>3866.25</v>
+        <v>3951.25</v>
       </c>
       <c r="D30" s="1">
         <v>3922.5</v>
@@ -2668,10 +2802,10 @@
         <v>3893.75</v>
       </c>
       <c r="J30" s="7">
-        <v>3890</v>
+        <v>3922.5</v>
       </c>
       <c r="K30" s="7">
-        <v>3846.25</v>
+        <v>3962.5</v>
       </c>
       <c r="L30" s="7">
         <v>3877.5</v>
@@ -2684,12 +2818,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6">
+        <v>1940</v>
+      </c>
       <c r="B31" s="7">
-        <v>2001.25</v>
+        <v>1993.75</v>
       </c>
       <c r="C31" s="7">
-        <v>2017.5</v>
+        <v>1996.25</v>
       </c>
       <c r="D31" s="1">
         <v>2063.75</v>
@@ -2710,10 +2846,10 @@
         <v>2010</v>
       </c>
       <c r="J31" s="7">
-        <v>2010</v>
+        <v>1986.25</v>
       </c>
       <c r="K31" s="7">
-        <v>1980</v>
+        <v>1998.75</v>
       </c>
       <c r="L31" s="7">
         <v>1940</v>
@@ -2726,12 +2862,14 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6">
+        <v>2700</v>
+      </c>
       <c r="B32" s="7">
-        <v>2778.13</v>
+        <v>2793.75</v>
       </c>
       <c r="C32" s="7">
-        <v>2776.25</v>
+        <v>2736.25</v>
       </c>
       <c r="D32" s="1">
         <v>2762.5</v>
@@ -2752,7 +2890,7 @@
         <v>2767.5</v>
       </c>
       <c r="J32" s="7">
-        <v>2850</v>
+        <v>2830</v>
       </c>
       <c r="K32" s="7">
         <v>2792.5</v>
@@ -2768,12 +2906,14 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6">
+        <v>2243.75</v>
+      </c>
       <c r="B33" s="7">
-        <v>2222.5</v>
+        <v>2221.25</v>
       </c>
       <c r="C33" s="7">
-        <v>2232.5</v>
+        <v>2273.75</v>
       </c>
       <c r="D33" s="1">
         <v>2271.25</v>
@@ -2794,10 +2934,10 @@
         <v>2250</v>
       </c>
       <c r="J33" s="7">
-        <v>2267.5</v>
+        <v>2222.5</v>
       </c>
       <c r="K33" s="7">
-        <v>2286.25</v>
+        <v>2275</v>
       </c>
       <c r="L33" s="7">
         <v>2243.75</v>
@@ -2810,12 +2950,14 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="16">
+        <v>2235</v>
+      </c>
       <c r="B34" s="13">
-        <v>2272.5</v>
+        <v>2282.5</v>
       </c>
       <c r="C34" s="13">
-        <v>2246.88</v>
+        <v>2277.5</v>
       </c>
       <c r="D34" s="22">
         <v>2245</v>
@@ -2836,10 +2978,10 @@
         <v>2271.25</v>
       </c>
       <c r="J34" s="13">
-        <v>2270</v>
+        <v>2235</v>
       </c>
       <c r="K34" s="13">
-        <v>2225</v>
+        <v>2196.25</v>
       </c>
       <c r="L34" s="13">
         <v>2235</v>
@@ -2863,19 +3005,19 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="14" priority="41">
       <formula>A4=SMALL($A4:$Z4,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="13" priority="42">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="12" priority="43">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="11" priority="44">
       <formula>A4=LARGE($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="45">
+    <cfRule type="expression" dxfId="10" priority="45">
       <formula>A4=LARGE($A4:$Z4,1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54270" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="56610" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ACBR_fBNO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACBR_fFAO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1;w1,w1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -95,10 +87,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TSR_LS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1;w1,w1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -107,14 +95,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TSR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSR_LS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TSR_RMIE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -138,6 +118,22 @@
   </si>
   <si>
     <t>1;w1,w1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACBR_BNO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS_TWW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR_TWW</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1003,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,77 +1074,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1469,7 +1398,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1481,39 +1410,39 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="27" t="s">
-        <v>21</v>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>17</v>
@@ -1521,20 +1450,20 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
+      <c r="D2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>1</v>
@@ -1551,49 +1480,49 @@
       <c r="M2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1609,23 +1538,23 @@
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>3975.2678571428573</v>
+        <v>3924.6428571428573</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>4002.2767857142858</v>
+        <v>3914.9107142857142</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>3992.9025000000006</v>
+        <v>4009.0178571428573</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>4004.7778571428576</v>
+        <v>4019.911785714286</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>3952.3439285714289</v>
+        <v>3983.9067857142863</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
@@ -1663,23 +1592,23 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
-        <v>3917.7678571428573</v>
+        <v>3875.5357142857142</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
-        <v>3940.1785714285716</v>
+        <v>3827.0535714285716</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>3917.2771428571432</v>
+        <v>3934.6428571428573</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>3935.6707142857144</v>
+        <v>3920.6257142857144</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="1"/>
-        <v>3893.9285714285716</v>
+        <v>3880.6700000000005</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="1"/>
@@ -1716,19 +1645,19 @@
         <v>5570</v>
       </c>
       <c r="D6" s="1">
-        <v>5625</v>
+        <v>5442.5</v>
       </c>
       <c r="E6" s="1">
-        <v>5730</v>
+        <v>5410</v>
       </c>
       <c r="F6" s="1">
-        <v>5551.25</v>
+        <v>5303.75</v>
       </c>
       <c r="G6" s="1">
-        <v>5664.38</v>
+        <v>5303.75</v>
       </c>
       <c r="H6" s="7">
-        <v>5483.75</v>
+        <v>5213.75</v>
       </c>
       <c r="I6" s="1">
         <v>5453.13</v>
@@ -1760,19 +1689,19 @@
         <v>4880</v>
       </c>
       <c r="D7" s="1">
-        <v>4885</v>
+        <v>4743.75</v>
       </c>
       <c r="E7" s="1">
-        <v>4917.5</v>
+        <v>4643.75</v>
       </c>
       <c r="F7" s="1">
-        <v>4868.13</v>
+        <v>5278.75</v>
       </c>
       <c r="G7" s="1">
-        <v>4926.25</v>
+        <v>5118.13</v>
       </c>
       <c r="H7" s="7">
-        <v>4871.25</v>
+        <v>5040.63</v>
       </c>
       <c r="I7" s="1">
         <v>4925.63</v>
@@ -1804,19 +1733,19 @@
         <v>3386.25</v>
       </c>
       <c r="D8" s="1">
-        <v>3427.5</v>
+        <v>3381.25</v>
       </c>
       <c r="E8" s="1">
-        <v>3421.25</v>
+        <v>3256.25</v>
       </c>
       <c r="F8" s="1">
-        <v>3435</v>
+        <v>3251.25</v>
       </c>
       <c r="G8" s="1">
-        <v>3471.25</v>
+        <v>3434.38</v>
       </c>
       <c r="H8" s="7">
-        <v>3286.25</v>
+        <v>3301.25</v>
       </c>
       <c r="I8" s="1">
         <v>3267.5</v>
@@ -1848,19 +1777,19 @@
         <v>5986.25</v>
       </c>
       <c r="D9" s="1">
-        <v>6047.5</v>
+        <v>5988.75</v>
       </c>
       <c r="E9" s="1">
-        <v>5973.75</v>
+        <v>5761.25</v>
       </c>
       <c r="F9" s="1">
-        <v>6068.75</v>
+        <v>6033.75</v>
       </c>
       <c r="G9" s="1">
-        <v>6034.38</v>
+        <v>6051.25</v>
       </c>
       <c r="H9" s="7">
-        <v>5906.25</v>
+        <v>5937.5</v>
       </c>
       <c r="I9" s="1">
         <v>6028.75</v>
@@ -1892,19 +1821,19 @@
         <v>2358.75</v>
       </c>
       <c r="D10" s="1">
-        <v>2242.5</v>
+        <v>2266.25</v>
       </c>
       <c r="E10" s="1">
-        <v>2268.75</v>
+        <v>2258.75</v>
       </c>
       <c r="F10" s="1">
-        <v>2286.25</v>
+        <v>2353.75</v>
       </c>
       <c r="G10" s="1">
-        <v>2288.13</v>
+        <v>2306.25</v>
       </c>
       <c r="H10" s="7">
-        <v>2212.5</v>
+        <v>2267.5</v>
       </c>
       <c r="I10" s="1">
         <v>2245</v>
@@ -1936,19 +1865,19 @@
         <v>4233.75</v>
       </c>
       <c r="D11" s="1">
-        <v>4237.5</v>
+        <v>4136.25</v>
       </c>
       <c r="E11" s="1">
-        <v>4196.25</v>
+        <v>4081.25</v>
       </c>
       <c r="F11" s="1">
-        <v>4053.75</v>
+        <v>4287.5</v>
       </c>
       <c r="G11" s="1">
-        <v>4160</v>
+        <v>4120</v>
       </c>
       <c r="H11" s="7">
-        <v>4153.75</v>
+        <v>4220</v>
       </c>
       <c r="I11" s="1">
         <v>4135</v>
@@ -1980,19 +1909,19 @@
         <v>4315</v>
       </c>
       <c r="D12" s="1">
-        <v>4346.25</v>
+        <v>4325</v>
       </c>
       <c r="E12" s="1">
-        <v>4326.25</v>
+        <v>4257.5</v>
       </c>
       <c r="F12" s="1">
-        <v>4292.5</v>
+        <v>4407.5</v>
       </c>
       <c r="G12" s="1">
-        <v>4290</v>
+        <v>4396.25</v>
       </c>
       <c r="H12" s="7">
-        <v>4267.5</v>
+        <v>4392.5</v>
       </c>
       <c r="I12" s="1">
         <v>4407.5</v>
@@ -2024,19 +1953,19 @@
         <v>7485</v>
       </c>
       <c r="D13" s="1">
+        <v>7327.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7112.5</v>
+      </c>
+      <c r="F13" s="1">
         <v>7186.25</v>
       </c>
-      <c r="E13" s="1">
-        <v>7461.25</v>
-      </c>
-      <c r="F13" s="1">
-        <v>7407.5</v>
-      </c>
       <c r="G13" s="1">
-        <v>7495</v>
+        <v>7261.25</v>
       </c>
       <c r="H13" s="7">
-        <v>7455</v>
+        <v>7071.25</v>
       </c>
       <c r="I13" s="1">
         <v>7463.75</v>
@@ -2068,19 +1997,19 @@
         <v>3252.5</v>
       </c>
       <c r="D14" s="1">
-        <v>3178.75</v>
+        <v>3212.5</v>
       </c>
       <c r="E14" s="1">
-        <v>3162.5</v>
+        <v>3191.25</v>
       </c>
       <c r="F14" s="1">
-        <v>3182.5</v>
+        <v>3276.25</v>
       </c>
       <c r="G14" s="1">
-        <v>3140</v>
+        <v>3252.5</v>
       </c>
       <c r="H14" s="7">
-        <v>3110</v>
+        <v>3281.25</v>
       </c>
       <c r="I14" s="1">
         <v>3187.5</v>
@@ -2112,19 +2041,19 @@
         <v>4253.75</v>
       </c>
       <c r="D15" s="1">
-        <v>4268.75</v>
+        <v>4237.5</v>
       </c>
       <c r="E15" s="1">
-        <v>4330</v>
+        <v>4248.75</v>
       </c>
       <c r="F15" s="1">
-        <v>4361.25</v>
+        <v>4367.5</v>
       </c>
       <c r="G15" s="1">
-        <v>4196.25</v>
+        <v>4328.75</v>
       </c>
       <c r="H15" s="7">
-        <v>4367.5</v>
+        <v>4340</v>
       </c>
       <c r="I15" s="1">
         <v>4243.75</v>
@@ -2156,19 +2085,19 @@
         <v>2002.5</v>
       </c>
       <c r="D16" s="1">
-        <v>1976.25</v>
+        <v>1906.25</v>
       </c>
       <c r="E16" s="1">
-        <v>2007.5</v>
+        <v>2001.25</v>
       </c>
       <c r="F16" s="1">
         <v>1936.25</v>
       </c>
       <c r="G16" s="1">
-        <v>2053.75</v>
+        <v>1931.25</v>
       </c>
       <c r="H16" s="7">
-        <v>2006.25</v>
+        <v>1871.25</v>
       </c>
       <c r="I16" s="1">
         <v>1981.25</v>
@@ -2200,19 +2129,19 @@
         <v>3145</v>
       </c>
       <c r="D17" s="1">
-        <v>3211.25</v>
+        <v>3133.75</v>
       </c>
       <c r="E17" s="1">
-        <v>3198.75</v>
+        <v>3228.75</v>
       </c>
       <c r="F17" s="1">
-        <v>3248.75</v>
+        <v>3262.5</v>
       </c>
       <c r="G17" s="1">
-        <v>3183.75</v>
+        <v>3225</v>
       </c>
       <c r="H17" s="7">
-        <v>3215</v>
+        <v>3290</v>
       </c>
       <c r="I17" s="1">
         <v>3182.5</v>
@@ -2244,19 +2173,19 @@
         <v>2043.75</v>
       </c>
       <c r="D18" s="1">
-        <v>2027.5</v>
+        <v>2046.25</v>
       </c>
       <c r="E18" s="1">
-        <v>2036.25</v>
+        <v>2010</v>
       </c>
       <c r="F18" s="1">
-        <v>2001.25</v>
+        <v>2048.75</v>
       </c>
       <c r="G18" s="1">
-        <v>2066.25</v>
+        <v>2032.5</v>
       </c>
       <c r="H18" s="7">
-        <v>2035</v>
+        <v>2031.25</v>
       </c>
       <c r="I18" s="1">
         <v>2048.75</v>
@@ -2288,19 +2217,19 @@
         <v>2183.75</v>
       </c>
       <c r="D19" s="1">
-        <v>2188.75</v>
+        <v>2110</v>
       </c>
       <c r="E19" s="1">
-        <v>2132.5</v>
+        <v>2117.5</v>
       </c>
       <c r="F19" s="1">
-        <v>2148.75</v>
+        <v>2091.25</v>
       </c>
       <c r="G19" s="1">
-        <v>2130</v>
+        <v>2127.5</v>
       </c>
       <c r="H19" s="7">
-        <v>2145</v>
+        <v>2071.25</v>
       </c>
       <c r="I19" s="1">
         <v>2158.75</v>
@@ -2335,23 +2264,23 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="2"/>
-        <v>4032.7678571428573</v>
+        <v>3973.75</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="2"/>
-        <v>4064.375</v>
+        <v>4002.7678571428573</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="2"/>
-        <v>4068.5278571428571</v>
+        <v>4083.3928571428573</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="2"/>
-        <v>4073.8849999999998</v>
+        <v>4119.1978571428572</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
-        <v>4010.7592857142859</v>
+        <v>4087.1435714285717</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
@@ -2388,19 +2317,19 @@
         <v>5943.13</v>
       </c>
       <c r="D21" s="1">
-        <v>6032.5</v>
+        <v>6017.5</v>
       </c>
       <c r="E21" s="1">
-        <v>6137.5</v>
+        <v>5847.5</v>
       </c>
       <c r="F21" s="7">
-        <v>6251.25</v>
+        <v>5651.25</v>
       </c>
       <c r="G21" s="1">
-        <v>6352.5</v>
+        <v>5895.63</v>
       </c>
       <c r="H21" s="7">
-        <v>6033.13</v>
+        <v>5820</v>
       </c>
       <c r="I21" s="7">
         <v>6188.75</v>
@@ -2432,19 +2361,19 @@
         <v>4999.38</v>
       </c>
       <c r="D22" s="1">
-        <v>4865</v>
+        <v>4880</v>
       </c>
       <c r="E22" s="1">
-        <v>5007.5</v>
+        <v>4963.75</v>
       </c>
       <c r="F22" s="7">
-        <v>5050</v>
+        <v>5456.25</v>
       </c>
       <c r="G22" s="1">
-        <v>4988.13</v>
+        <v>5493.13</v>
       </c>
       <c r="H22" s="7">
-        <v>4902.5</v>
+        <v>5466.25</v>
       </c>
       <c r="I22" s="7">
         <v>5052.5</v>
@@ -2476,19 +2405,19 @@
         <v>3410</v>
       </c>
       <c r="D23" s="1">
-        <v>3285</v>
+        <v>3363.75</v>
       </c>
       <c r="E23" s="1">
-        <v>3393.75</v>
+        <v>3358.75</v>
       </c>
       <c r="F23" s="7">
-        <v>3368.13</v>
+        <v>3378.75</v>
       </c>
       <c r="G23" s="1">
-        <v>3374.38</v>
+        <v>3375</v>
       </c>
       <c r="H23" s="7">
-        <v>3308.75</v>
+        <v>3345</v>
       </c>
       <c r="I23" s="7">
         <v>3403.75</v>
@@ -2520,19 +2449,19 @@
         <v>6637.5</v>
       </c>
       <c r="D24" s="1">
-        <v>6486.25</v>
+        <v>6337.5</v>
       </c>
       <c r="E24" s="1">
-        <v>6518.75</v>
+        <v>6541.25</v>
       </c>
       <c r="F24" s="7">
-        <v>6620.63</v>
+        <v>6506.25</v>
       </c>
       <c r="G24" s="1">
-        <v>6617.5</v>
+        <v>6596.88</v>
       </c>
       <c r="H24" s="7">
-        <v>6485</v>
+        <v>6549.38</v>
       </c>
       <c r="I24" s="7">
         <v>6625</v>
@@ -2564,19 +2493,19 @@
         <v>2812.5</v>
       </c>
       <c r="D25" s="1">
-        <v>2835</v>
+        <v>2831.25</v>
       </c>
       <c r="E25" s="1">
-        <v>2956.25</v>
+        <v>2777.5</v>
       </c>
       <c r="F25" s="7">
-        <v>2913.75</v>
+        <v>2997.5</v>
       </c>
       <c r="G25" s="1">
-        <v>2867.5</v>
+        <v>3101.88</v>
       </c>
       <c r="H25" s="7">
-        <v>2640</v>
+        <v>2940.63</v>
       </c>
       <c r="I25" s="7">
         <v>2738.75</v>
@@ -2608,19 +2537,19 @@
         <v>4672.5</v>
       </c>
       <c r="D26" s="1">
-        <v>4880</v>
+        <v>4531.25</v>
       </c>
       <c r="E26" s="1">
-        <v>4897.5</v>
+        <v>4690</v>
       </c>
       <c r="F26" s="7">
-        <v>4874.38</v>
+        <v>4992.5</v>
       </c>
       <c r="G26" s="1">
-        <v>4815.63</v>
+        <v>5095</v>
       </c>
       <c r="H26" s="7">
-        <v>4901.25</v>
+        <v>5007.5</v>
       </c>
       <c r="I26" s="7">
         <v>4762.5</v>
@@ -2652,19 +2581,19 @@
         <v>4251.25</v>
       </c>
       <c r="D27" s="1">
-        <v>4270</v>
+        <v>4205</v>
       </c>
       <c r="E27" s="1">
-        <v>4316.25</v>
+        <v>4260</v>
       </c>
       <c r="F27" s="7">
-        <v>4286.25</v>
+        <v>4273.75</v>
       </c>
       <c r="G27" s="1">
-        <v>4246.25</v>
+        <v>4252.5</v>
       </c>
       <c r="H27" s="7">
-        <v>4262.5</v>
+        <v>4176.25</v>
       </c>
       <c r="I27" s="7">
         <v>4223.75</v>
@@ -2696,19 +2625,19 @@
         <v>7102.5</v>
       </c>
       <c r="D28" s="1">
-        <v>7161.25</v>
+        <v>7047.5</v>
       </c>
       <c r="E28" s="1">
-        <v>7170</v>
+        <v>6993.75</v>
       </c>
       <c r="F28" s="7">
-        <v>7128.75</v>
+        <v>6978.75</v>
       </c>
       <c r="G28" s="1">
-        <v>7265</v>
+        <v>7091.25</v>
       </c>
       <c r="H28" s="7">
-        <v>7105</v>
+        <v>7072.5</v>
       </c>
       <c r="I28" s="7">
         <v>7242.5</v>
@@ -2740,19 +2669,19 @@
         <v>3442.5</v>
       </c>
       <c r="D29" s="1">
-        <v>3378.75</v>
+        <v>3488.75</v>
       </c>
       <c r="E29" s="1">
-        <v>3386.25</v>
+        <v>3526.25</v>
       </c>
       <c r="F29" s="7">
-        <v>3411.25</v>
+        <v>3458.75</v>
       </c>
       <c r="G29" s="1">
-        <v>3390</v>
+        <v>3582.5</v>
       </c>
       <c r="H29" s="7">
-        <v>3412.5</v>
+        <v>3480</v>
       </c>
       <c r="I29" s="7">
         <v>3498.75</v>
@@ -2784,19 +2713,19 @@
         <v>3951.25</v>
       </c>
       <c r="D30" s="1">
-        <v>3922.5</v>
+        <v>3877.5</v>
       </c>
       <c r="E30" s="1">
-        <v>3863.75</v>
+        <v>3906.25</v>
       </c>
       <c r="F30" s="7">
-        <v>3841.25</v>
+        <v>4118.75</v>
       </c>
       <c r="G30" s="1">
-        <v>3801.25</v>
+        <v>4002.5</v>
       </c>
       <c r="H30" s="7">
-        <v>3895</v>
+        <v>3988.75</v>
       </c>
       <c r="I30" s="7">
         <v>3893.75</v>
@@ -2828,19 +2757,19 @@
         <v>1996.25</v>
       </c>
       <c r="D31" s="1">
-        <v>2063.75</v>
+        <v>1928.75</v>
       </c>
       <c r="E31" s="1">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="F31" s="7">
-        <v>1951.25</v>
+        <v>2050</v>
       </c>
       <c r="G31" s="1">
-        <v>1965</v>
+        <v>1982.5</v>
       </c>
       <c r="H31" s="7">
-        <v>1993.75</v>
+        <v>2010</v>
       </c>
       <c r="I31" s="7">
         <v>2010</v>
@@ -2872,19 +2801,19 @@
         <v>2736.25</v>
       </c>
       <c r="D32" s="1">
-        <v>2762.5</v>
+        <v>2730</v>
       </c>
       <c r="E32" s="1">
-        <v>2747.5</v>
+        <v>2713.75</v>
       </c>
       <c r="F32" s="7">
-        <v>2687.5</v>
+        <v>2793.75</v>
       </c>
       <c r="G32" s="1">
-        <v>2822.5</v>
+        <v>2703.75</v>
       </c>
       <c r="H32" s="7">
-        <v>2783.75</v>
+        <v>2825</v>
       </c>
       <c r="I32" s="7">
         <v>2767.5</v>
@@ -2916,19 +2845,19 @@
         <v>2273.75</v>
       </c>
       <c r="D33" s="1">
-        <v>2271.25</v>
+        <v>2167.5</v>
       </c>
       <c r="E33" s="1">
-        <v>2275</v>
+        <v>2257.5</v>
       </c>
       <c r="F33" s="7">
-        <v>2291.25</v>
+        <v>2231.25</v>
       </c>
       <c r="G33" s="1">
-        <v>2272.5</v>
+        <v>2261.25</v>
       </c>
       <c r="H33" s="7">
-        <v>2212.5</v>
+        <v>2247.5</v>
       </c>
       <c r="I33" s="7">
         <v>2250</v>
@@ -2960,19 +2889,19 @@
         <v>2277.5</v>
       </c>
       <c r="D34" s="22">
-        <v>2245</v>
+        <v>2226.25</v>
       </c>
       <c r="E34" s="22">
-        <v>2281.25</v>
+        <v>2262.5</v>
       </c>
       <c r="F34" s="13">
-        <v>2283.75</v>
+        <v>2280</v>
       </c>
       <c r="G34" s="22">
-        <v>2256.25</v>
+        <v>2235</v>
       </c>
       <c r="H34" s="13">
-        <v>2215</v>
+        <v>2291.25</v>
       </c>
       <c r="I34" s="13">
         <v>2271.25</v>
@@ -3005,19 +2934,19 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">
-    <cfRule type="expression" dxfId="14" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>A4=SMALL($A4:$Z4,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="42">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="43">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="44">
+    <cfRule type="expression" dxfId="1" priority="44">
       <formula>A4=LARGE($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="0" priority="45">
       <formula>A4=LARGE($A4:$Z4,1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="56610" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="57780" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -91,14 +91,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TSR_RM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSR_RMIE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BTS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -130,6 +122,14 @@
   </si>
   <si>
     <t>BTS_TWW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSR_TWW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACBR_BNO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1410,10 +1410,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="31" t="s">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="K1" s="31"/>
       <c r="L1" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="33"/>
       <c r="N1" s="28" t="s">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>17</v>
@@ -1457,71 +1457,59 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1558,11 +1546,11 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>3987.7682142857147</v>
+        <v>3884.9553571428573</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>3948.2814285714289</v>
+        <v>3974.7321428571427</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="0"/>
@@ -1612,11 +1600,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="1"/>
-        <v>3909.1971428571428</v>
+        <v>3842.7678571428573</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="1"/>
-        <v>3887.8571428571427</v>
+        <v>3888.4821428571427</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
@@ -1660,10 +1648,10 @@
         <v>5213.75</v>
       </c>
       <c r="I6" s="1">
-        <v>5453.13</v>
+        <v>5445</v>
       </c>
       <c r="J6" s="7">
-        <v>5382.5</v>
+        <v>5133.75</v>
       </c>
       <c r="K6" s="7">
         <v>5536.25</v>
@@ -1704,10 +1692,10 @@
         <v>5040.63</v>
       </c>
       <c r="I7" s="1">
-        <v>4925.63</v>
+        <v>4530</v>
       </c>
       <c r="J7" s="7">
-        <v>4796.25</v>
+        <v>5133.75</v>
       </c>
       <c r="K7" s="7">
         <v>4872.5</v>
@@ -1748,10 +1736,10 @@
         <v>3301.25</v>
       </c>
       <c r="I8" s="1">
-        <v>3267.5</v>
+        <v>3403.75</v>
       </c>
       <c r="J8" s="7">
-        <v>3300</v>
+        <v>3233.75</v>
       </c>
       <c r="K8" s="7">
         <v>3307.5</v>
@@ -1792,10 +1780,10 @@
         <v>5937.5</v>
       </c>
       <c r="I9" s="1">
-        <v>6028.75</v>
+        <v>5955</v>
       </c>
       <c r="J9" s="7">
-        <v>5945</v>
+        <v>6080</v>
       </c>
       <c r="K9" s="7">
         <v>5862.5</v>
@@ -1836,10 +1824,10 @@
         <v>2267.5</v>
       </c>
       <c r="I10" s="1">
-        <v>2245</v>
+        <v>2237.5</v>
       </c>
       <c r="J10" s="7">
-        <v>2313.75</v>
+        <v>2401.25</v>
       </c>
       <c r="K10" s="7">
         <v>2206.25</v>
@@ -1880,10 +1868,10 @@
         <v>4220</v>
       </c>
       <c r="I11" s="1">
-        <v>4135</v>
+        <v>4128.75</v>
       </c>
       <c r="J11" s="7">
-        <v>4205</v>
+        <v>4227.5</v>
       </c>
       <c r="K11" s="7">
         <v>4090</v>
@@ -1924,10 +1912,10 @@
         <v>4392.5</v>
       </c>
       <c r="I12" s="1">
-        <v>4407.5</v>
+        <v>4317.5</v>
       </c>
       <c r="J12" s="7">
-        <v>4363.75</v>
+        <v>4315</v>
       </c>
       <c r="K12" s="7">
         <v>4302.5</v>
@@ -1968,10 +1956,10 @@
         <v>7071.25</v>
       </c>
       <c r="I13" s="1">
-        <v>7463.75</v>
+        <v>7110</v>
       </c>
       <c r="J13" s="7">
-        <v>7181.25</v>
+        <v>7157.5</v>
       </c>
       <c r="K13" s="7">
         <v>7312.5</v>
@@ -2012,10 +2000,10 @@
         <v>3281.25</v>
       </c>
       <c r="I14" s="1">
-        <v>3187.5</v>
+        <v>3181.25</v>
       </c>
       <c r="J14" s="7">
-        <v>3207.5</v>
+        <v>3263.75</v>
       </c>
       <c r="K14" s="7">
         <v>3263.75</v>
@@ -2056,10 +2044,10 @@
         <v>4340</v>
       </c>
       <c r="I15" s="1">
-        <v>4243.75</v>
+        <v>4231.25</v>
       </c>
       <c r="J15" s="7">
-        <v>4377.5</v>
+        <v>4325</v>
       </c>
       <c r="K15" s="7">
         <v>4321.25</v>
@@ -2100,10 +2088,10 @@
         <v>1871.25</v>
       </c>
       <c r="I16" s="1">
-        <v>1981.25</v>
+        <v>1908.75</v>
       </c>
       <c r="J16" s="7">
-        <v>1921.25</v>
+        <v>1897.5</v>
       </c>
       <c r="K16" s="7">
         <v>1912.5</v>
@@ -2144,10 +2132,10 @@
         <v>3290</v>
       </c>
       <c r="I17" s="1">
-        <v>3182.5</v>
+        <v>3161.25</v>
       </c>
       <c r="J17" s="7">
-        <v>3238.75</v>
+        <v>3161.25</v>
       </c>
       <c r="K17" s="7">
         <v>3250</v>
@@ -2188,10 +2176,10 @@
         <v>2031.25</v>
       </c>
       <c r="I18" s="1">
-        <v>2048.75</v>
+        <v>2051.25</v>
       </c>
       <c r="J18" s="7">
-        <v>2046.25</v>
+        <v>2032.5</v>
       </c>
       <c r="K18" s="7">
         <v>2067.5</v>
@@ -2232,10 +2220,10 @@
         <v>2071.25</v>
       </c>
       <c r="I19" s="1">
-        <v>2158.75</v>
+        <v>2137.5</v>
       </c>
       <c r="J19" s="7">
-        <v>2151.25</v>
+        <v>2076.25</v>
       </c>
       <c r="K19" s="7">
         <v>2178.75</v>
@@ -2284,11 +2272,11 @@
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
-        <v>4066.3392857142858</v>
+        <v>3927.1428571428573</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="2"/>
-        <v>4008.7057142857147</v>
+        <v>4060.9821428571427</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="2"/>
@@ -2332,10 +2320,10 @@
         <v>5820</v>
       </c>
       <c r="I21" s="7">
-        <v>6188.75</v>
+        <v>5692.5</v>
       </c>
       <c r="J21" s="7">
-        <v>5711.88</v>
+        <v>5695</v>
       </c>
       <c r="K21" s="7">
         <v>5855</v>
@@ -2376,10 +2364,10 @@
         <v>5466.25</v>
       </c>
       <c r="I22" s="7">
-        <v>5052.5</v>
+        <v>4838.75</v>
       </c>
       <c r="J22" s="7">
-        <v>5090</v>
+        <v>5377.5</v>
       </c>
       <c r="K22" s="7">
         <v>4988.75</v>
@@ -2420,10 +2408,10 @@
         <v>3345</v>
       </c>
       <c r="I23" s="7">
-        <v>3403.75</v>
+        <v>3307.5</v>
       </c>
       <c r="J23" s="7">
-        <v>3377.5</v>
+        <v>3311.25</v>
       </c>
       <c r="K23" s="7">
         <v>3312.5</v>
@@ -2464,10 +2452,10 @@
         <v>6549.38</v>
       </c>
       <c r="I24" s="7">
-        <v>6625</v>
+        <v>6273.75</v>
       </c>
       <c r="J24" s="7">
-        <v>6420</v>
+        <v>6663.75</v>
       </c>
       <c r="K24" s="7">
         <v>6308.75</v>
@@ -2508,10 +2496,10 @@
         <v>2940.63</v>
       </c>
       <c r="I25" s="7">
-        <v>2738.75</v>
+        <v>2673.75</v>
       </c>
       <c r="J25" s="7">
-        <v>2962.5</v>
+        <v>2978.75</v>
       </c>
       <c r="K25" s="7">
         <v>2871.25</v>
@@ -2552,10 +2540,10 @@
         <v>5007.5</v>
       </c>
       <c r="I26" s="7">
-        <v>4762.5</v>
+        <v>4611.25</v>
       </c>
       <c r="J26" s="7">
-        <v>4787.5</v>
+        <v>5075</v>
       </c>
       <c r="K26" s="7">
         <v>4782.5</v>
@@ -2596,10 +2584,10 @@
         <v>4176.25</v>
       </c>
       <c r="I27" s="7">
-        <v>4223.75</v>
+        <v>4277.5</v>
       </c>
       <c r="J27" s="7">
-        <v>4222.5</v>
+        <v>4090</v>
       </c>
       <c r="K27" s="7">
         <v>4306.25</v>
@@ -2640,10 +2628,10 @@
         <v>7072.5</v>
       </c>
       <c r="I28" s="7">
-        <v>7242.5</v>
+        <v>6921.25</v>
       </c>
       <c r="J28" s="7">
-        <v>6893.75</v>
+        <v>6966.25</v>
       </c>
       <c r="K28" s="7">
         <v>6992.5</v>
@@ -2684,10 +2672,10 @@
         <v>3480</v>
       </c>
       <c r="I29" s="7">
-        <v>3498.75</v>
+        <v>3515</v>
       </c>
       <c r="J29" s="7">
-        <v>3460</v>
+        <v>3505</v>
       </c>
       <c r="K29" s="7">
         <v>3472.5</v>
@@ -2728,10 +2716,10 @@
         <v>3988.75</v>
       </c>
       <c r="I30" s="7">
-        <v>3893.75</v>
+        <v>3812.5</v>
       </c>
       <c r="J30" s="7">
-        <v>3922.5</v>
+        <v>3885</v>
       </c>
       <c r="K30" s="7">
         <v>3962.5</v>
@@ -2772,10 +2760,10 @@
         <v>2010</v>
       </c>
       <c r="I31" s="7">
-        <v>2010</v>
+        <v>1873.75</v>
       </c>
       <c r="J31" s="7">
-        <v>1986.25</v>
+        <v>2006.25</v>
       </c>
       <c r="K31" s="7">
         <v>1998.75</v>
@@ -2816,10 +2804,10 @@
         <v>2825</v>
       </c>
       <c r="I32" s="7">
-        <v>2767.5</v>
+        <v>2726.25</v>
       </c>
       <c r="J32" s="7">
-        <v>2830</v>
+        <v>2817.5</v>
       </c>
       <c r="K32" s="7">
         <v>2792.5</v>
@@ -2860,10 +2848,10 @@
         <v>2247.5</v>
       </c>
       <c r="I33" s="7">
-        <v>2250</v>
+        <v>2192.5</v>
       </c>
       <c r="J33" s="7">
-        <v>2222.5</v>
+        <v>2237.5</v>
       </c>
       <c r="K33" s="7">
         <v>2275</v>
@@ -2904,10 +2892,10 @@
         <v>2291.25</v>
       </c>
       <c r="I34" s="13">
-        <v>2271.25</v>
+        <v>2263.75</v>
       </c>
       <c r="J34" s="13">
-        <v>2235</v>
+        <v>2245</v>
       </c>
       <c r="K34" s="13">
         <v>2196.25</v>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57780" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="61290" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -71,52 +71,18 @@
     <t>n030w4</t>
   </si>
   <si>
+    <t>ACBR_iBNO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>1;w1,w1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ACBR_iBNO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;w1,w1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;w1,w1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;w1,w1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACBR_iBNO</t>
-  </si>
-  <si>
-    <t>TSR_RMIE</t>
-  </si>
-  <si>
-    <t>1;w1,w1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;w1,w1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ACBR_BNO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -134,6 +100,51 @@
   </si>
   <si>
     <t>TSR_TWW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi8d8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;n.2,n.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0,0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi16d16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0,0</t>
+  </si>
+  <si>
+    <t>ACBR_BNO</t>
+  </si>
+  <si>
+    <t>TSRi8d8</t>
+  </si>
+  <si>
+    <t>TSRi16d8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi8d4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi4d4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -667,15 +678,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -926,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,34 +953,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -987,13 +989,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1002,13 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1017,16 +1013,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1067,42 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1398,7 +1426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1410,181 +1438,183 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="28" t="s">
-        <v>19</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>17</v>
+      <c r="D2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="29"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3925.4246428571428</v>
+        <v>3874.1521428571432</v>
       </c>
       <c r="B4" s="12">
         <f>AVERAGE(B6:B19,B21:B34)</f>
-        <v>3939.7328571428575</v>
+        <v>3793.125</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:M4" si="0">AVERAGE(C6:C19,C21:C34)</f>
-        <v>3985.8039285714285</v>
+        <v>3812.4107142857142</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>3924.6428571428573</v>
+        <v>3799.0178571428573</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>3914.9107142857142</v>
+        <v>3817.9042857142858</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>4009.0178571428573</v>
+        <v>3934.6428571428573</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>4019.911785714286</v>
+        <v>3920.6257142857144</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>3983.9067857142863</v>
+        <v>3880.6700000000005</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>3884.9553571428573</v>
+        <v>3842.7678571428573</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>3974.7321428571427</v>
+        <v>3888.4821428571427</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="0"/>
-        <v>3949.9553571428573</v>
+        <v>3828.0807142857147</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="0"/>
-        <v>3925.4246428571428</v>
+        <v>3812.366428571429</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>3969.9782142857143</v>
+        <v>3896.6521428571432</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <v>3866.3842857142859</v>
+        <v>3812.366428571429</v>
       </c>
       <c r="B5" s="11">
         <f>AVERAGE(B6:B19)</f>
-        <v>3867.4114285714286</v>
+        <v>3793.125</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" ref="C5:M5" si="1">AVERAGE(C6:C19)</f>
-        <v>3935.4464285714284</v>
+        <v>3812.4107142857142</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
-        <v>3875.5357142857142</v>
+        <v>3799.0178571428573</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="1"/>
-        <v>3827.0535714285716</v>
+        <f>AVERAGE(E6:E19)</f>
+        <v>3817.9042857142858</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -1608,35 +1638,35 @@
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>3891.6964285714284</v>
+        <v>3828.0807142857147</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="1"/>
-        <v>3866.3842857142859</v>
+        <v>3812.366428571429</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="1"/>
         <v>3896.6521428571432</v>
       </c>
-      <c r="N5" s="20">
-        <v>1</v>
+      <c r="N5" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
-        <v>5449.38</v>
+        <v>5320.63</v>
       </c>
       <c r="B6" s="7">
-        <v>5441.88</v>
+        <v>5347.5</v>
       </c>
       <c r="C6" s="7">
-        <v>5570</v>
+        <v>5468.75</v>
       </c>
       <c r="D6" s="1">
-        <v>5442.5</v>
+        <v>5332.5</v>
       </c>
       <c r="E6" s="1">
-        <v>5410</v>
+        <v>5360.63</v>
       </c>
       <c r="F6" s="1">
         <v>5303.75</v>
@@ -1654,10 +1684,10 @@
         <v>5133.75</v>
       </c>
       <c r="K6" s="7">
-        <v>5536.25</v>
+        <v>5339.38</v>
       </c>
       <c r="L6" s="1">
-        <v>5449.38</v>
+        <v>5320.63</v>
       </c>
       <c r="M6" s="2">
         <v>5401.88</v>
@@ -1668,19 +1698,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
-        <v>4726.25</v>
+        <v>4636.25</v>
       </c>
       <c r="B7" s="7">
+        <v>4531.25</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4567.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4581.25</v>
+      </c>
+      <c r="E7" s="1">
         <v>4749.38</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4880</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4743.75</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4643.75</v>
       </c>
       <c r="F7" s="1">
         <v>5278.75</v>
@@ -1698,10 +1728,10 @@
         <v>5133.75</v>
       </c>
       <c r="K7" s="7">
-        <v>4872.5</v>
+        <v>4833.75</v>
       </c>
       <c r="L7" s="1">
-        <v>4726.25</v>
+        <v>4636.25</v>
       </c>
       <c r="M7" s="2">
         <v>4845</v>
@@ -1712,19 +1742,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
-        <v>3187.5</v>
+        <v>3258.75</v>
       </c>
       <c r="B8" s="7">
-        <v>3385</v>
+        <v>3247.5</v>
       </c>
       <c r="C8" s="7">
-        <v>3386.25</v>
+        <v>3290</v>
       </c>
       <c r="D8" s="1">
-        <v>3381.25</v>
+        <v>3242.5</v>
       </c>
       <c r="E8" s="1">
-        <v>3256.25</v>
+        <v>3287.5</v>
       </c>
       <c r="F8" s="1">
         <v>3251.25</v>
@@ -1742,10 +1772,10 @@
         <v>3233.75</v>
       </c>
       <c r="K8" s="7">
-        <v>3307.5</v>
+        <v>3255</v>
       </c>
       <c r="L8" s="1">
-        <v>3187.5</v>
+        <v>3258.75</v>
       </c>
       <c r="M8" s="2">
         <v>3311.25</v>
@@ -1756,19 +1786,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
-        <v>5892.5</v>
+        <v>5832.5</v>
       </c>
       <c r="B9" s="7">
-        <v>5887.5</v>
+        <v>5806.25</v>
       </c>
       <c r="C9" s="7">
-        <v>5986.25</v>
+        <v>5663.75</v>
       </c>
       <c r="D9" s="1">
-        <v>5988.75</v>
+        <v>5683.75</v>
       </c>
       <c r="E9" s="1">
-        <v>5761.25</v>
+        <v>5743.75</v>
       </c>
       <c r="F9" s="1">
         <v>6033.75</v>
@@ -1786,10 +1816,10 @@
         <v>6080</v>
       </c>
       <c r="K9" s="7">
-        <v>5862.5</v>
+        <v>5788.75</v>
       </c>
       <c r="L9" s="1">
-        <v>5892.5</v>
+        <v>5832.5</v>
       </c>
       <c r="M9" s="2">
         <v>5875</v>
@@ -1800,19 +1830,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
-        <v>2260</v>
+        <v>2208.75</v>
       </c>
       <c r="B10" s="7">
-        <v>2261.25</v>
+        <v>2153.75</v>
       </c>
       <c r="C10" s="7">
-        <v>2358.75</v>
+        <v>2155</v>
       </c>
       <c r="D10" s="1">
-        <v>2266.25</v>
+        <v>2158.75</v>
       </c>
       <c r="E10" s="1">
-        <v>2258.75</v>
+        <v>2226.88</v>
       </c>
       <c r="F10" s="1">
         <v>2353.75</v>
@@ -1830,10 +1860,10 @@
         <v>2401.25</v>
       </c>
       <c r="K10" s="7">
-        <v>2206.25</v>
+        <v>2251.25</v>
       </c>
       <c r="L10" s="1">
-        <v>2260</v>
+        <v>2208.75</v>
       </c>
       <c r="M10" s="2">
         <v>2338.75</v>
@@ -1844,19 +1874,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
-        <v>4238.75</v>
+        <v>4108.75</v>
       </c>
       <c r="B11" s="7">
-        <v>4101.25</v>
+        <v>4085</v>
       </c>
       <c r="C11" s="7">
-        <v>4233.75</v>
+        <v>4046.25</v>
       </c>
       <c r="D11" s="1">
-        <v>4136.25</v>
+        <v>4147.5</v>
       </c>
       <c r="E11" s="1">
-        <v>4081.25</v>
+        <v>4076.88</v>
       </c>
       <c r="F11" s="1">
         <v>4287.5</v>
@@ -1874,10 +1904,10 @@
         <v>4227.5</v>
       </c>
       <c r="K11" s="7">
-        <v>4090</v>
+        <v>4196.25</v>
       </c>
       <c r="L11" s="1">
-        <v>4238.75</v>
+        <v>4108.75</v>
       </c>
       <c r="M11" s="2">
         <v>4173.75</v>
@@ -1888,19 +1918,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="B12" s="7">
-        <v>4330</v>
+        <v>4232.5</v>
       </c>
       <c r="C12" s="7">
-        <v>4315</v>
+        <v>4277.5</v>
       </c>
       <c r="D12" s="1">
-        <v>4325</v>
+        <v>4280</v>
       </c>
       <c r="E12" s="1">
-        <v>4257.5</v>
+        <v>4254.38</v>
       </c>
       <c r="F12" s="1">
         <v>4407.5</v>
@@ -1918,10 +1948,10 @@
         <v>4315</v>
       </c>
       <c r="K12" s="7">
-        <v>4302.5</v>
+        <v>4250</v>
       </c>
       <c r="L12" s="1">
-        <v>4305</v>
+        <v>4300</v>
       </c>
       <c r="M12" s="2">
         <v>4386.25</v>
@@ -1932,19 +1962,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
-        <v>7158.75</v>
+        <v>7060</v>
       </c>
       <c r="B13" s="7">
-        <v>7301.25</v>
+        <v>7027.5</v>
       </c>
       <c r="C13" s="7">
-        <v>7485</v>
+        <v>7137.5</v>
       </c>
       <c r="D13" s="1">
-        <v>7327.5</v>
+        <v>7191.25</v>
       </c>
       <c r="E13" s="1">
-        <v>7112.5</v>
+        <v>7126.88</v>
       </c>
       <c r="F13" s="1">
         <v>7186.25</v>
@@ -1962,10 +1992,10 @@
         <v>7157.5</v>
       </c>
       <c r="K13" s="7">
-        <v>7312.5</v>
+        <v>7241.25</v>
       </c>
       <c r="L13" s="1">
-        <v>7158.75</v>
+        <v>7060</v>
       </c>
       <c r="M13" s="2">
         <v>7400</v>
@@ -1976,19 +2006,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <v>3263.75</v>
+        <v>3197.5</v>
       </c>
       <c r="B14" s="7">
-        <v>3277.5</v>
+        <v>3221.25</v>
       </c>
       <c r="C14" s="7">
-        <v>3252.5</v>
+        <v>3197.5</v>
       </c>
       <c r="D14" s="1">
-        <v>3212.5</v>
+        <v>3235</v>
       </c>
       <c r="E14" s="1">
-        <v>3191.25</v>
+        <v>3243.13</v>
       </c>
       <c r="F14" s="1">
         <v>3276.25</v>
@@ -2006,10 +2036,10 @@
         <v>3263.75</v>
       </c>
       <c r="K14" s="7">
-        <v>3263.75</v>
+        <v>3262.5</v>
       </c>
       <c r="L14" s="1">
-        <v>3263.75</v>
+        <v>3197.5</v>
       </c>
       <c r="M14" s="2">
         <v>3250</v>
@@ -2020,19 +2050,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
-        <v>4301.25</v>
+        <v>4083.75</v>
       </c>
       <c r="B15" s="7">
-        <v>4173.75</v>
+        <v>4181.25</v>
       </c>
       <c r="C15" s="7">
-        <v>4253.75</v>
+        <v>4320</v>
       </c>
       <c r="D15" s="1">
-        <v>4237.5</v>
+        <v>4096.25</v>
       </c>
       <c r="E15" s="1">
-        <v>4248.75</v>
+        <v>4207.5</v>
       </c>
       <c r="F15" s="1">
         <v>4367.5</v>
@@ -2050,10 +2080,10 @@
         <v>4325</v>
       </c>
       <c r="K15" s="7">
-        <v>4321.25</v>
+        <v>4016.25</v>
       </c>
       <c r="L15" s="1">
-        <v>4301.25</v>
+        <v>4083.75</v>
       </c>
       <c r="M15" s="2">
         <v>4252.5</v>
@@ -2064,19 +2094,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>1931.25</v>
+        <v>1916.25</v>
       </c>
       <c r="B16" s="7">
-        <v>1960</v>
+        <v>1892.5</v>
       </c>
       <c r="C16" s="7">
-        <v>2002.5</v>
+        <v>1906.25</v>
       </c>
       <c r="D16" s="1">
-        <v>1906.25</v>
+        <v>1865</v>
       </c>
       <c r="E16" s="1">
-        <v>2001.25</v>
+        <v>1920</v>
       </c>
       <c r="F16" s="1">
         <v>1936.25</v>
@@ -2094,10 +2124,10 @@
         <v>1897.5</v>
       </c>
       <c r="K16" s="7">
-        <v>1912.5</v>
+        <v>1927.5</v>
       </c>
       <c r="L16" s="1">
-        <v>1931.25</v>
+        <v>1916.25</v>
       </c>
       <c r="M16" s="2">
         <v>1955</v>
@@ -2108,19 +2138,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>3180</v>
+        <v>3290</v>
       </c>
       <c r="B17" s="7">
-        <v>3115</v>
+        <v>3213.75</v>
       </c>
       <c r="C17" s="7">
-        <v>3145</v>
+        <v>3200</v>
       </c>
       <c r="D17" s="1">
-        <v>3133.75</v>
+        <v>3236.25</v>
       </c>
       <c r="E17" s="1">
-        <v>3228.75</v>
+        <v>3117.5</v>
       </c>
       <c r="F17" s="1">
         <v>3262.5</v>
@@ -2138,10 +2168,10 @@
         <v>3161.25</v>
       </c>
       <c r="K17" s="7">
-        <v>3250</v>
+        <v>3128.75</v>
       </c>
       <c r="L17" s="1">
-        <v>3180</v>
+        <v>3290</v>
       </c>
       <c r="M17" s="2">
         <v>3233.75</v>
@@ -2152,19 +2182,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
-        <v>2091.25</v>
+        <v>2031.25</v>
       </c>
       <c r="B18" s="7">
-        <v>2036.25</v>
+        <v>2048.75</v>
       </c>
       <c r="C18" s="7">
-        <v>2043.75</v>
+        <v>2011.25</v>
       </c>
       <c r="D18" s="1">
-        <v>2046.25</v>
+        <v>1996.25</v>
       </c>
       <c r="E18" s="1">
-        <v>2010</v>
+        <v>2026.25</v>
       </c>
       <c r="F18" s="1">
         <v>2048.75</v>
@@ -2182,10 +2212,10 @@
         <v>2032.5</v>
       </c>
       <c r="K18" s="7">
-        <v>2067.5</v>
+        <v>1990</v>
       </c>
       <c r="L18" s="1">
-        <v>2091.25</v>
+        <v>2031.25</v>
       </c>
       <c r="M18" s="2">
         <v>2025</v>
@@ -2196,19 +2226,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>2143.75</v>
+        <v>2128.75</v>
       </c>
       <c r="B19" s="7">
-        <v>2123.75</v>
+        <v>2115</v>
       </c>
       <c r="C19" s="7">
-        <v>2183.75</v>
+        <v>2132.5</v>
       </c>
       <c r="D19" s="1">
+        <v>2140</v>
+      </c>
+      <c r="E19" s="1">
         <v>2110</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2117.5</v>
       </c>
       <c r="F19" s="1">
         <v>2091.25</v>
@@ -2226,10 +2256,10 @@
         <v>2076.25</v>
       </c>
       <c r="K19" s="7">
-        <v>2178.75</v>
+        <v>2112.5</v>
       </c>
       <c r="L19" s="1">
-        <v>2143.75</v>
+        <v>2128.75</v>
       </c>
       <c r="M19" s="2">
         <v>2105</v>
@@ -2240,701 +2270,360 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
-        <v>3984.4650000000001</v>
-      </c>
-      <c r="B20" s="10">
+        <v>3935.9378571428574</v>
+      </c>
+      <c r="B20" s="10" t="e">
         <f>AVERAGE(B21:B34)</f>
-        <v>4012.0542857142859</v>
-      </c>
-      <c r="C20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="8" t="e">
         <f t="shared" ref="C20:M20" si="2">AVERAGE(C21:C34)</f>
-        <v>4036.1614285714286</v>
-      </c>
-      <c r="D20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>3973.75</v>
-      </c>
-      <c r="E20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4002.7678571428573</v>
-      </c>
-      <c r="F20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4083.3928571428573</v>
-      </c>
-      <c r="G20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4119.1978571428572</v>
-      </c>
-      <c r="H20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4087.1435714285717</v>
-      </c>
-      <c r="I20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>3927.1428571428573</v>
-      </c>
-      <c r="J20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4060.9821428571427</v>
-      </c>
-      <c r="K20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>4008.2142857142858</v>
-      </c>
-      <c r="L20" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>3984.4650000000001</v>
-      </c>
-      <c r="M20" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>4043.3042857142859</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>5855.63</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5901.25</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5943.13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6017.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5847.5</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5651.25</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5895.63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5820</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5692.5</v>
-      </c>
-      <c r="J21" s="7">
-        <v>5695</v>
-      </c>
-      <c r="K21" s="7">
-        <v>5855</v>
-      </c>
-      <c r="L21" s="7">
-        <v>5855.63</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5829.38</v>
-      </c>
+        <v>5812.5</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>5043.13</v>
-      </c>
-      <c r="B22" s="7">
-        <v>4885.63</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4999.38</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4880</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4963.75</v>
-      </c>
-      <c r="F22" s="7">
-        <v>5456.25</v>
-      </c>
-      <c r="G22" s="1">
-        <v>5493.13</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5466.25</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4838.75</v>
-      </c>
-      <c r="J22" s="7">
-        <v>5377.5</v>
-      </c>
-      <c r="K22" s="7">
-        <v>4988.75</v>
-      </c>
-      <c r="L22" s="7">
-        <v>5043.13</v>
-      </c>
-      <c r="M22" s="7">
-        <v>5094.38</v>
-      </c>
+        <v>5013.75</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>3363.75</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3321.88</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3410</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3363.75</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3358.75</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3378.75</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3375</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3345</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3307.5</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3311.25</v>
-      </c>
-      <c r="K23" s="7">
-        <v>3312.5</v>
-      </c>
-      <c r="L23" s="7">
-        <v>3363.75</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3486.25</v>
-      </c>
+        <v>3276.88</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>6390</v>
-      </c>
-      <c r="B24" s="7">
-        <v>6413.75</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6637.5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6337.5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6541.25</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6506.25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6596.88</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6549.38</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6273.75</v>
-      </c>
-      <c r="J24" s="7">
-        <v>6663.75</v>
-      </c>
-      <c r="K24" s="7">
-        <v>6308.75</v>
-      </c>
-      <c r="L24" s="7">
-        <v>6390</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6435</v>
-      </c>
+        <v>6241.25</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>2716.25</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2903.75</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2812.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2831.25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2777.5</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2997.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3101.88</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2940.63</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2673.75</v>
-      </c>
-      <c r="J25" s="7">
-        <v>2978.75</v>
-      </c>
-      <c r="K25" s="7">
-        <v>2871.25</v>
-      </c>
-      <c r="L25" s="7">
-        <v>2716.25</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2842.5</v>
-      </c>
+        <v>2613.75</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>4703.75</v>
-      </c>
-      <c r="B26" s="7">
-        <v>4685</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4672.5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4531.25</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4690</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4992.5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>5095</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5007.5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4611.25</v>
-      </c>
-      <c r="J26" s="7">
-        <v>5075</v>
-      </c>
-      <c r="K26" s="7">
-        <v>4782.5</v>
-      </c>
-      <c r="L26" s="7">
-        <v>4703.75</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4891.25</v>
-      </c>
+        <v>4753.75</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>4313.75</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4353.75</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4251.25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4205</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4260</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4273.75</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4252.5</v>
-      </c>
-      <c r="H27" s="7">
-        <v>4176.25</v>
-      </c>
-      <c r="I27" s="7">
-        <v>4277.5</v>
-      </c>
-      <c r="J27" s="7">
-        <v>4090</v>
-      </c>
-      <c r="K27" s="7">
-        <v>4306.25</v>
-      </c>
-      <c r="L27" s="7">
-        <v>4313.75</v>
-      </c>
-      <c r="M27" s="7">
-        <v>4182.5</v>
-      </c>
+        <v>4265</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
-        <v>6960</v>
-      </c>
-      <c r="B28" s="7">
-        <v>7101.25</v>
-      </c>
-      <c r="C28" s="7">
-        <v>7102.5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7047.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>6993.75</v>
-      </c>
-      <c r="F28" s="7">
-        <v>6978.75</v>
-      </c>
-      <c r="G28" s="1">
-        <v>7091.25</v>
-      </c>
-      <c r="H28" s="7">
-        <v>7072.5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6921.25</v>
-      </c>
-      <c r="J28" s="7">
-        <v>6966.25</v>
-      </c>
-      <c r="K28" s="7">
-        <v>6992.5</v>
-      </c>
-      <c r="L28" s="7">
-        <v>6960</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7100</v>
-      </c>
+        <v>6853.75</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>3440</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3438.75</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3442.5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3488.75</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3526.25</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3458.75</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3582.5</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3480</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3515</v>
-      </c>
-      <c r="J29" s="7">
-        <v>3505</v>
-      </c>
-      <c r="K29" s="7">
-        <v>3472.5</v>
-      </c>
-      <c r="L29" s="7">
-        <v>3440</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3522.5</v>
-      </c>
+        <v>3342.5</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>3877.5</v>
-      </c>
-      <c r="B30" s="7">
-        <v>3872.5</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3951.25</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3877.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3906.25</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4118.75</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4002.5</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3988.75</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3812.5</v>
-      </c>
-      <c r="J30" s="7">
-        <v>3885</v>
-      </c>
-      <c r="K30" s="7">
-        <v>3962.5</v>
-      </c>
-      <c r="L30" s="7">
-        <v>3877.5</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3971.25</v>
-      </c>
+        <v>3731.25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>1940</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1993.75</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1996.25</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1928.75</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1940</v>
-      </c>
-      <c r="F31" s="7">
-        <v>2050</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1982.5</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2010</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1873.75</v>
-      </c>
-      <c r="J31" s="7">
-        <v>2006.25</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1998.75</v>
-      </c>
-      <c r="L31" s="7">
-        <v>1940</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1953.75</v>
-      </c>
+        <v>1946.25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>2700</v>
-      </c>
-      <c r="B32" s="7">
-        <v>2793.75</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2736.25</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2730</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2713.75</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2793.75</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2703.75</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2825</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2726.25</v>
-      </c>
-      <c r="J32" s="7">
-        <v>2817.5</v>
-      </c>
-      <c r="K32" s="7">
-        <v>2792.5</v>
-      </c>
-      <c r="L32" s="7">
-        <v>2700</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2762.5</v>
-      </c>
+        <v>2785</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>2243.75</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2221.25</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2273.75</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2167.5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2257.5</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2231.25</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2261.25</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2247.5</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2192.5</v>
-      </c>
-      <c r="J33" s="7">
-        <v>2237.5</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2275</v>
-      </c>
-      <c r="L33" s="7">
-        <v>2243.75</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2248.75</v>
-      </c>
+        <v>2201.25</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>2235</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2282.5</v>
-      </c>
-      <c r="C34" s="13">
-        <v>2277.5</v>
-      </c>
-      <c r="D34" s="22">
-        <v>2226.25</v>
-      </c>
-      <c r="E34" s="22">
-        <v>2262.5</v>
-      </c>
-      <c r="F34" s="13">
-        <v>2280</v>
-      </c>
-      <c r="G34" s="22">
-        <v>2235</v>
-      </c>
-      <c r="H34" s="13">
-        <v>2291.25</v>
-      </c>
-      <c r="I34" s="13">
-        <v>2263.75</v>
-      </c>
-      <c r="J34" s="13">
-        <v>2245</v>
-      </c>
-      <c r="K34" s="13">
-        <v>2196.25</v>
-      </c>
-      <c r="L34" s="13">
-        <v>2235</v>
-      </c>
-      <c r="M34" s="13">
-        <v>2286.25</v>
-      </c>
+        <v>2266.25</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
       <c r="N34" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="9" priority="41">
       <formula>A4=SMALL($A4:$Z4,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="8" priority="42">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="7" priority="43">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="6" priority="44">
       <formula>A4=LARGE($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>A4=LARGE($A4:$Z4,1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INRC2_Simulator/log/compare.xlsx
+++ b/INRC2_Simulator/log/compare.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="61290" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="65970" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>TSR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -87,7 +87,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>BTS_TWW</t>
+    <t>ACBR_BNO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -95,56 +95,69 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>seq1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi8d8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;n.2,n.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0,0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi16d16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACBR_BNO</t>
+  </si>
+  <si>
+    <t>TSRi8d8</t>
+  </si>
+  <si>
+    <t>TSRi16d8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi8d4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSRi4d4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;w1,w1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0,0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>ACBR_BNO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TSR_TWW</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TSRi8d8</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;n.2,n.2</t>
+    <t>TSRi32d32</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;0,0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSRi16d16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0,0</t>
-  </si>
-  <si>
-    <t>ACBR_BNO</t>
-  </si>
-  <si>
-    <t>TSRi8d8</t>
-  </si>
-  <si>
-    <t>TSRi16d8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSRi8d4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSRi4d4</t>
+    <t>2;n1.2,n1.2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -799,6 +812,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -928,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1031,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,8 +1052,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1067,42 +1109,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1426,7 +1433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,33 +1445,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>16</v>
@@ -1478,73 +1489,77 @@
       <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
+      <c r="F2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3874.1521428571432</v>
+        <v>3864.9107142857142</v>
       </c>
       <c r="B4" s="12">
         <f>AVERAGE(B6:B19,B21:B34)</f>
@@ -1564,15 +1579,15 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>3934.6428571428573</v>
+        <v>3860.5357142857142</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>3920.6257142857144</v>
+        <v>4013.8842857142859</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>3880.6700000000005</v>
+        <v>3809.7321428571427</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
@@ -1592,13 +1607,13 @@
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>3896.6521428571432</v>
+        <v>3798.3928571428573</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <v>3812.366428571429</v>
+        <v>3809.7321428571427</v>
       </c>
       <c r="B5" s="11">
         <f>AVERAGE(B6:B19)</f>
@@ -1618,15 +1633,15 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>3934.6428571428573</v>
+        <v>3860.5357142857142</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>3920.6257142857144</v>
+        <v>4013.8842857142859</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="1"/>
-        <v>3880.6700000000005</v>
+        <v>3809.7321428571427</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="1"/>
@@ -1646,15 +1661,15 @@
       </c>
       <c r="M5" s="15">
         <f t="shared" si="1"/>
-        <v>3896.6521428571432</v>
+        <v>3798.3928571428573</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
-        <v>5320.63</v>
+        <v>5378.75</v>
       </c>
       <c r="B6" s="7">
         <v>5347.5</v>
@@ -1669,13 +1684,13 @@
         <v>5360.63</v>
       </c>
       <c r="F6" s="1">
-        <v>5303.75</v>
+        <v>5422.5</v>
       </c>
       <c r="G6" s="1">
-        <v>5303.75</v>
+        <v>5682.5</v>
       </c>
       <c r="H6" s="7">
-        <v>5213.75</v>
+        <v>5378.75</v>
       </c>
       <c r="I6" s="1">
         <v>5445</v>
@@ -1690,7 +1705,7 @@
         <v>5320.63</v>
       </c>
       <c r="M6" s="2">
-        <v>5401.88</v>
+        <v>5302.5</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>2</v>
@@ -1698,7 +1713,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
-        <v>4636.25</v>
+        <v>4642.5</v>
       </c>
       <c r="B7" s="7">
         <v>4531.25</v>
@@ -1713,13 +1728,13 @@
         <v>4749.38</v>
       </c>
       <c r="F7" s="1">
-        <v>5278.75</v>
+        <v>4753.75</v>
       </c>
       <c r="G7" s="1">
-        <v>5118.13</v>
+        <v>5194.38</v>
       </c>
       <c r="H7" s="7">
-        <v>5040.63</v>
+        <v>4642.5</v>
       </c>
       <c r="I7" s="1">
         <v>4530</v>
@@ -1734,7 +1749,7 @@
         <v>4636.25</v>
       </c>
       <c r="M7" s="2">
-        <v>4845</v>
+        <v>4661.25</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>3</v>
@@ -1742,7 +1757,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
-        <v>3258.75</v>
+        <v>3278.75</v>
       </c>
       <c r="B8" s="7">
         <v>3247.5</v>
@@ -1757,13 +1772,13 @@
         <v>3287.5</v>
       </c>
       <c r="F8" s="1">
-        <v>3251.25</v>
+        <v>3315</v>
       </c>
       <c r="G8" s="1">
-        <v>3434.38</v>
+        <v>3358.75</v>
       </c>
       <c r="H8" s="7">
-        <v>3301.25</v>
+        <v>3278.75</v>
       </c>
       <c r="I8" s="1">
         <v>3403.75</v>
@@ -1778,7 +1793,7 @@
         <v>3258.75</v>
       </c>
       <c r="M8" s="2">
-        <v>3311.25</v>
+        <v>3200</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>4</v>
@@ -1786,7 +1801,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
-        <v>5832.5</v>
+        <v>5795</v>
       </c>
       <c r="B9" s="7">
         <v>5806.25</v>
@@ -1801,13 +1816,13 @@
         <v>5743.75</v>
       </c>
       <c r="F9" s="1">
-        <v>6033.75</v>
+        <v>5881.25</v>
       </c>
       <c r="G9" s="1">
-        <v>6051.25</v>
+        <v>6088.75</v>
       </c>
       <c r="H9" s="7">
-        <v>5937.5</v>
+        <v>5795</v>
       </c>
       <c r="I9" s="1">
         <v>5955</v>
@@ -1822,7 +1837,7 @@
         <v>5832.5</v>
       </c>
       <c r="M9" s="2">
-        <v>5875</v>
+        <v>5890</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>5</v>
@@ -1830,7 +1845,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
-        <v>2208.75</v>
+        <v>2167.5</v>
       </c>
       <c r="B10" s="7">
         <v>2153.75</v>
@@ -1845,13 +1860,13 @@
         <v>2226.88</v>
       </c>
       <c r="F10" s="1">
-        <v>2353.75</v>
+        <v>2296.25</v>
       </c>
       <c r="G10" s="1">
-        <v>2306.25</v>
+        <v>2678.75</v>
       </c>
       <c r="H10" s="7">
-        <v>2267.5</v>
+        <v>2167.5</v>
       </c>
       <c r="I10" s="1">
         <v>2237.5</v>
@@ -1866,7 +1881,7 @@
         <v>2208.75</v>
       </c>
       <c r="M10" s="2">
-        <v>2338.75</v>
+        <v>2240</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>6</v>
@@ -1874,7 +1889,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
-        <v>4108.75</v>
+        <v>4088.75</v>
       </c>
       <c r="B11" s="7">
         <v>4085</v>
@@ -1889,13 +1904,13 @@
         <v>4076.88</v>
       </c>
       <c r="F11" s="1">
-        <v>4287.5</v>
+        <v>4226.25</v>
       </c>
       <c r="G11" s="1">
-        <v>4120</v>
+        <v>4267.5</v>
       </c>
       <c r="H11" s="7">
-        <v>4220</v>
+        <v>4088.75</v>
       </c>
       <c r="I11" s="1">
         <v>4128.75</v>
@@ -1910,7 +1925,7 @@
         <v>4108.75</v>
       </c>
       <c r="M11" s="2">
-        <v>4173.75</v>
+        <v>4003.75</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>7</v>
@@ -1918,7 +1933,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>4300</v>
+        <v>4242.5</v>
       </c>
       <c r="B12" s="7">
         <v>4232.5</v>
@@ -1933,13 +1948,13 @@
         <v>4254.38</v>
       </c>
       <c r="F12" s="1">
-        <v>4407.5</v>
+        <v>4207.5</v>
       </c>
       <c r="G12" s="1">
-        <v>4396.25</v>
+        <v>4426.25</v>
       </c>
       <c r="H12" s="7">
-        <v>4392.5</v>
+        <v>4242.5</v>
       </c>
       <c r="I12" s="1">
         <v>4317.5</v>
@@ -1954,7 +1969,7 @@
         <v>4300</v>
       </c>
       <c r="M12" s="2">
-        <v>4386.25</v>
+        <v>4237.5</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>8</v>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
-        <v>7060</v>
+        <v>7210</v>
       </c>
       <c r="B13" s="7">
         <v>7027.5</v>
@@ -1977,13 +1992,13 @@
         <v>7126.88</v>
       </c>
       <c r="F13" s="1">
-        <v>7186.25</v>
+        <v>7161.25</v>
       </c>
       <c r="G13" s="1">
-        <v>7261.25</v>
+        <v>7303.75</v>
       </c>
       <c r="H13" s="7">
-        <v>7071.25</v>
+        <v>7210</v>
       </c>
       <c r="I13" s="1">
         <v>7110</v>
@@ -1998,7 +2013,7 @@
         <v>7060</v>
       </c>
       <c r="M13" s="2">
-        <v>7400</v>
+        <v>7107.5</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>9</v>
@@ -2006,7 +2021,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <v>3197.5</v>
+        <v>3240</v>
       </c>
       <c r="B14" s="7">
         <v>3221.25</v>
@@ -2021,13 +2036,13 @@
         <v>3243.13</v>
       </c>
       <c r="F14" s="1">
-        <v>3276.25</v>
+        <v>3227.5</v>
       </c>
       <c r="G14" s="1">
-        <v>3252.5</v>
+        <v>3286.25</v>
       </c>
       <c r="H14" s="7">
-        <v>3281.25</v>
+        <v>3240</v>
       </c>
       <c r="I14" s="1">
         <v>3181.25</v>
@@ -2042,7 +2057,7 @@
         <v>3197.5</v>
       </c>
       <c r="M14" s="2">
-        <v>3250</v>
+        <v>3212.5</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>10</v>
@@ -2050,7 +2065,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
-        <v>4083.75</v>
+        <v>4092.5</v>
       </c>
       <c r="B15" s="7">
         <v>4181.25</v>
@@ -2065,13 +2080,13 @@
         <v>4207.5</v>
       </c>
       <c r="F15" s="1">
-        <v>4367.5</v>
+        <v>4131.25</v>
       </c>
       <c r="G15" s="1">
-        <v>4328.75</v>
+        <v>4417.5</v>
       </c>
       <c r="H15" s="7">
-        <v>4340</v>
+        <v>4092.5</v>
       </c>
       <c r="I15" s="1">
         <v>4231.25</v>
@@ -2086,7 +2101,7 @@
         <v>4083.75</v>
       </c>
       <c r="M15" s="2">
-        <v>4252.5</v>
+        <v>4177.5</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>11</v>
@@ -2094,7 +2109,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>1916.25</v>
+        <v>1882.5</v>
       </c>
       <c r="B16" s="7">
         <v>1892.5</v>
@@ -2109,13 +2124,13 @@
         <v>1920</v>
       </c>
       <c r="F16" s="1">
-        <v>1936.25</v>
+        <v>1911.25</v>
       </c>
       <c r="G16" s="1">
-        <v>1931.25</v>
+        <v>1993.75</v>
       </c>
       <c r="H16" s="7">
-        <v>1871.25</v>
+        <v>1882.5</v>
       </c>
       <c r="I16" s="1">
         <v>1908.75</v>
@@ -2130,7 +2145,7 @@
         <v>1916.25</v>
       </c>
       <c r="M16" s="2">
-        <v>1955</v>
+        <v>1906.25</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>12</v>
@@ -2138,7 +2153,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>3290</v>
+        <v>3125</v>
       </c>
       <c r="B17" s="7">
         <v>3213.75</v>
@@ -2153,13 +2168,13 @@
         <v>3117.5</v>
       </c>
       <c r="F17" s="1">
-        <v>3262.5</v>
+        <v>3282.5</v>
       </c>
       <c r="G17" s="1">
-        <v>3225</v>
+        <v>3206.25</v>
       </c>
       <c r="H17" s="7">
-        <v>3290</v>
+        <v>3125</v>
       </c>
       <c r="I17" s="1">
         <v>3161.25</v>
@@ -2174,7 +2189,7 @@
         <v>3290</v>
       </c>
       <c r="M17" s="2">
-        <v>3233.75</v>
+        <v>3126.25</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>13</v>
@@ -2182,7 +2197,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
-        <v>2031.25</v>
+        <v>2046.25</v>
       </c>
       <c r="B18" s="7">
         <v>2048.75</v>
@@ -2197,13 +2212,13 @@
         <v>2026.25</v>
       </c>
       <c r="F18" s="1">
-        <v>2048.75</v>
+        <v>2101.25</v>
       </c>
       <c r="G18" s="1">
-        <v>2032.5</v>
+        <v>2151.25</v>
       </c>
       <c r="H18" s="7">
-        <v>2031.25</v>
+        <v>2046.25</v>
       </c>
       <c r="I18" s="1">
         <v>2051.25</v>
@@ -2218,7 +2233,7 @@
         <v>2031.25</v>
       </c>
       <c r="M18" s="2">
-        <v>2025</v>
+        <v>2002.5</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>14</v>
@@ -2226,7 +2241,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>2128.75</v>
+        <v>2146.25</v>
       </c>
       <c r="B19" s="7">
         <v>2115</v>
@@ -2241,13 +2256,13 @@
         <v>2110</v>
       </c>
       <c r="F19" s="1">
-        <v>2091.25</v>
+        <v>2130</v>
       </c>
       <c r="G19" s="1">
-        <v>2127.5</v>
+        <v>2138.75</v>
       </c>
       <c r="H19" s="7">
-        <v>2071.25</v>
+        <v>2146.25</v>
       </c>
       <c r="I19" s="1">
         <v>2137.5</v>
@@ -2262,7 +2277,7 @@
         <v>2128.75</v>
       </c>
       <c r="M19" s="2">
-        <v>2105</v>
+        <v>2110</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>15</v>
@@ -2270,7 +2285,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
-        <v>3935.9378571428574</v>
+        <v>3920.0892857142858</v>
       </c>
       <c r="B20" s="10" t="e">
         <f>AVERAGE(B21:B34)</f>
@@ -2321,12 +2336,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>5812.5</v>
+        <v>5568.75</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2346,7 +2361,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>5013.75</v>
+        <v>4822.5</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2366,7 +2381,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>3276.88</v>
+        <v>3342.5</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2386,7 +2401,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>6241.25</v>
+        <v>6310</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2406,7 +2421,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>2613.75</v>
+        <v>2727.5</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2426,7 +2441,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>4753.75</v>
+        <v>4661.25</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2446,7 +2461,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>4265</v>
+        <v>4122.5</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2466,7 +2481,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
-        <v>6853.75</v>
+        <v>6861.25</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2486,7 +2501,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>3342.5</v>
+        <v>3507.5</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2506,7 +2521,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>3731.25</v>
+        <v>3832.5</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2526,7 +2541,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>1946.25</v>
+        <v>1996.25</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2546,7 +2561,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>2785</v>
+        <v>2763.75</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2566,7 +2581,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>2201.25</v>
+        <v>2163.75</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2586,7 +2601,7 @@
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>2266.25</v>
+        <v>2201.25</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2607,23 +2622,23 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:M34">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>A4=SMALL($A4:$Z4,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A4=SMALL($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="1" priority="44">
       <formula>A4=LARGE($A4:$Z4,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="0" priority="45">
       <formula>A4=LARGE($A4:$Z4,1)</formula>
     </cfRule>
   </conditionalFormatting>
